--- a/all_results.xlsx
+++ b/all_results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="evaluation_Qwise" sheetId="1" state="visible" r:id="rId2"/>
@@ -71,6 +71,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -154,13 +155,18 @@
   </sheetPr>
   <dimension ref="A1:L361"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A322" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B362" activeCellId="0" sqref="B362"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A272" activeCellId="0" sqref="A272"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.8010204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="5" style="0" width="6.79"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10478,25 +10484,25 @@
         <v>1</v>
       </c>
       <c r="F272" s="0" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="G272" s="0" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H272" s="0" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I272" s="0" t="n">
         <v>0.36</v>
       </c>
-      <c r="I272" s="0" t="n">
-        <v>0.26</v>
-      </c>
       <c r="J272" s="0" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="K272" s="0" t="n">
-        <v>0.056</v>
+        <v>0.058</v>
       </c>
       <c r="L272" s="0" t="n">
-        <v>0.033</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10519,22 +10525,22 @@
         <v>0.2</v>
       </c>
       <c r="G273" s="0" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H273" s="0" t="n">
-        <v>0.28</v>
+        <v>0.12</v>
       </c>
       <c r="I273" s="0" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="J273" s="0" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K273" s="0" t="n">
-        <v>0.032</v>
+        <v>0.026</v>
       </c>
       <c r="L273" s="0" t="n">
-        <v>0.017</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10554,7 +10560,7 @@
         <v>1</v>
       </c>
       <c r="F274" s="0" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="G274" s="0" t="n">
         <v>0.8</v>
@@ -10563,16 +10569,16 @@
         <v>0.64</v>
       </c>
       <c r="I274" s="0" t="n">
-        <v>0.42</v>
+        <v>0.48</v>
       </c>
       <c r="J274" s="0" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="K274" s="0" t="n">
-        <v>0.088</v>
+        <v>0.084</v>
       </c>
       <c r="L274" s="0" t="n">
-        <v>0.05</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10592,25 +10598,25 @@
         <v>0.0263</v>
       </c>
       <c r="F275" s="0" t="n">
-        <v>0.0526</v>
+        <v>0.1053</v>
       </c>
       <c r="G275" s="0" t="n">
-        <v>0.0789</v>
+        <v>0.1579</v>
       </c>
       <c r="H275" s="0" t="n">
-        <v>0.2368</v>
+        <v>0.3421</v>
       </c>
       <c r="I275" s="0" t="n">
-        <v>0.3421</v>
+        <v>0.4737</v>
       </c>
       <c r="J275" s="0" t="n">
-        <v>0.5526</v>
+        <v>0.5789</v>
       </c>
       <c r="K275" s="0" t="n">
-        <v>0.7368</v>
+        <v>0.7632</v>
       </c>
       <c r="L275" s="0" t="n">
-        <v>0.8684</v>
+        <v>0.8158</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10633,22 +10639,22 @@
         <v>0.0526</v>
       </c>
       <c r="G276" s="0" t="n">
-        <v>0.2632</v>
+        <v>0.1053</v>
       </c>
       <c r="H276" s="0" t="n">
-        <v>0.3684</v>
+        <v>0.1579</v>
       </c>
       <c r="I276" s="0" t="n">
+        <v>0.3158</v>
+      </c>
+      <c r="J276" s="0" t="n">
         <v>0.4211</v>
       </c>
-      <c r="J276" s="0" t="n">
-        <v>0.5263</v>
-      </c>
       <c r="K276" s="0" t="n">
-        <v>0.8421</v>
+        <v>0.6842</v>
       </c>
       <c r="L276" s="0" t="n">
-        <v>0.8947</v>
+        <v>0.6842</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10668,7 +10674,7 @@
         <v>0.0175</v>
       </c>
       <c r="F277" s="0" t="n">
-        <v>0.0526</v>
+        <v>0.0877</v>
       </c>
       <c r="G277" s="0" t="n">
         <v>0.1404</v>
@@ -10677,16 +10683,16 @@
         <v>0.2807</v>
       </c>
       <c r="I277" s="0" t="n">
-        <v>0.3684</v>
+        <v>0.4211</v>
       </c>
       <c r="J277" s="0" t="n">
-        <v>0.5439</v>
+        <v>0.5263</v>
       </c>
       <c r="K277" s="0" t="n">
+        <v>0.7368</v>
+      </c>
+      <c r="L277" s="0" t="n">
         <v>0.7719</v>
-      </c>
-      <c r="L277" s="0" t="n">
-        <v>0.8772</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10706,25 +10712,25 @@
         <v>0.0513</v>
       </c>
       <c r="F278" s="0" t="n">
-        <v>0.093</v>
+        <v>0.1861</v>
       </c>
       <c r="G278" s="0" t="n">
-        <v>0.1249</v>
+        <v>0.25</v>
       </c>
       <c r="H278" s="0" t="n">
-        <v>0.2857</v>
+        <v>0.4127</v>
       </c>
       <c r="I278" s="0" t="n">
-        <v>0.2955</v>
+        <v>0.4091</v>
       </c>
       <c r="J278" s="0" t="n">
-        <v>0.3043</v>
+        <v>0.3188</v>
       </c>
       <c r="K278" s="0" t="n">
-        <v>0.1041</v>
+        <v>0.1078</v>
       </c>
       <c r="L278" s="0" t="n">
-        <v>0.0636</v>
+        <v>0.0597</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10747,22 +10753,22 @@
         <v>0.0833</v>
       </c>
       <c r="G279" s="0" t="n">
-        <v>0.3449</v>
+        <v>0.138</v>
       </c>
       <c r="H279" s="0" t="n">
-        <v>0.3182</v>
+        <v>0.1364</v>
       </c>
       <c r="I279" s="0" t="n">
-        <v>0.2319</v>
+        <v>0.1739</v>
       </c>
       <c r="J279" s="0" t="n">
-        <v>0.1681</v>
+        <v>0.1345</v>
       </c>
       <c r="K279" s="0" t="n">
-        <v>0.0617</v>
+        <v>0.0501</v>
       </c>
       <c r="L279" s="0" t="n">
-        <v>0.0334</v>
+        <v>0.0255</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10782,7 +10788,7 @@
         <v>0.0344</v>
       </c>
       <c r="F280" s="0" t="n">
-        <v>0.0967</v>
+        <v>0.1613</v>
       </c>
       <c r="G280" s="0" t="n">
         <v>0.2389</v>
@@ -10791,16 +10797,16 @@
         <v>0.3902</v>
       </c>
       <c r="I280" s="0" t="n">
-        <v>0.3925</v>
+        <v>0.4486</v>
       </c>
       <c r="J280" s="0" t="n">
-        <v>0.3949</v>
+        <v>0.3822</v>
       </c>
       <c r="K280" s="0" t="n">
-        <v>0.158</v>
+        <v>0.1508</v>
       </c>
       <c r="L280" s="0" t="n">
-        <v>0.0946</v>
+        <v>0.0833</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10817,28 +10823,28 @@
         <v>10</v>
       </c>
       <c r="E281" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F281" s="0" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="G281" s="0" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H281" s="0" t="n">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="I281" s="0" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="J281" s="0" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="K281" s="0" t="n">
-        <v>0.022</v>
+        <v>0.034</v>
       </c>
       <c r="L281" s="0" t="n">
-        <v>0.015</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10855,28 +10861,28 @@
         <v>10</v>
       </c>
       <c r="E282" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F282" s="0" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G282" s="0" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H282" s="0" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I282" s="0" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="J282" s="0" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="K282" s="0" t="n">
-        <v>0.022</v>
+        <v>0.02</v>
       </c>
       <c r="L282" s="0" t="n">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10899,22 +10905,22 @@
         <v>0.6</v>
       </c>
       <c r="G283" s="0" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H283" s="0" t="n">
-        <v>0.2</v>
+        <v>0.32</v>
       </c>
       <c r="I283" s="0" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="J283" s="0" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="K283" s="0" t="n">
-        <v>0.044</v>
+        <v>0.054</v>
       </c>
       <c r="L283" s="0" t="n">
-        <v>0.028</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10931,28 +10937,28 @@
         <v>10</v>
       </c>
       <c r="E284" s="0" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F284" s="0" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="G284" s="0" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="H284" s="0" t="n">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="I284" s="0" t="n">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="J284" s="0" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K284" s="0" t="n">
-        <v>0.44</v>
+        <v>0.68</v>
       </c>
       <c r="L284" s="0" t="n">
-        <v>0.6</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10969,28 +10975,28 @@
         <v>10</v>
       </c>
       <c r="E285" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F285" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G285" s="0" t="n">
         <v>0.0294</v>
       </c>
-      <c r="F285" s="0" t="n">
+      <c r="H285" s="0" t="n">
         <v>0.0588</v>
       </c>
-      <c r="G285" s="0" t="n">
-        <v>0.0588</v>
-      </c>
-      <c r="H285" s="0" t="n">
+      <c r="I285" s="0" t="n">
         <v>0.0882</v>
       </c>
-      <c r="I285" s="0" t="n">
-        <v>0.1176</v>
-      </c>
       <c r="J285" s="0" t="n">
-        <v>0.2353</v>
+        <v>0.1765</v>
       </c>
       <c r="K285" s="0" t="n">
-        <v>0.3235</v>
+        <v>0.2941</v>
       </c>
       <c r="L285" s="0" t="n">
-        <v>0.3824</v>
+        <v>0.3529</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11013,22 +11019,22 @@
         <v>0.0508</v>
       </c>
       <c r="G286" s="0" t="n">
-        <v>0.0678</v>
+        <v>0.0847</v>
       </c>
       <c r="H286" s="0" t="n">
-        <v>0.0847</v>
+        <v>0.1356</v>
       </c>
       <c r="I286" s="0" t="n">
-        <v>0.1186</v>
+        <v>0.1525</v>
       </c>
       <c r="J286" s="0" t="n">
-        <v>0.2203</v>
+        <v>0.2712</v>
       </c>
       <c r="K286" s="0" t="n">
-        <v>0.3729</v>
+        <v>0.4576</v>
       </c>
       <c r="L286" s="0" t="n">
-        <v>0.4746</v>
+        <v>0.5085</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11045,28 +11051,28 @@
         <v>10</v>
       </c>
       <c r="E287" s="0" t="n">
-        <v>0</v>
+        <v>0.0769</v>
       </c>
       <c r="F287" s="0" t="n">
-        <v>0.0667</v>
+        <v>0.2</v>
       </c>
       <c r="G287" s="0" t="n">
-        <v>0.1143</v>
+        <v>0.2286</v>
       </c>
       <c r="H287" s="0" t="n">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="I287" s="0" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="J287" s="0" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="K287" s="0" t="n">
-        <v>0.0419</v>
+        <v>0.0648</v>
       </c>
       <c r="L287" s="0" t="n">
-        <v>0.0293</v>
+        <v>0.0351</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11083,28 +11089,28 @@
         <v>10</v>
       </c>
       <c r="E288" s="0" t="n">
-        <v>0.0571</v>
+        <v>0</v>
       </c>
       <c r="F288" s="0" t="n">
-        <v>0.1025</v>
+        <v>0</v>
       </c>
       <c r="G288" s="0" t="n">
-        <v>0.0909</v>
+        <v>0.0454</v>
       </c>
       <c r="H288" s="0" t="n">
-        <v>0.1017</v>
+        <v>0.0678</v>
       </c>
       <c r="I288" s="0" t="n">
-        <v>0.0952</v>
+        <v>0.0714</v>
       </c>
       <c r="J288" s="0" t="n">
-        <v>0.1194</v>
+        <v>0.0896</v>
       </c>
       <c r="K288" s="0" t="n">
-        <v>0.0412</v>
+        <v>0.0375</v>
       </c>
       <c r="L288" s="0" t="n">
-        <v>0.0251</v>
+        <v>0.0232</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11127,22 +11133,22 @@
         <v>0.0937</v>
       </c>
       <c r="G289" s="0" t="n">
-        <v>0.1159</v>
+        <v>0.1449</v>
       </c>
       <c r="H289" s="0" t="n">
-        <v>0.119</v>
+        <v>0.1905</v>
       </c>
       <c r="I289" s="0" t="n">
-        <v>0.1284</v>
+        <v>0.1651</v>
       </c>
       <c r="J289" s="0" t="n">
-        <v>0.1635</v>
+        <v>0.2013</v>
       </c>
       <c r="K289" s="0" t="n">
-        <v>0.0787</v>
+        <v>0.0966</v>
       </c>
       <c r="L289" s="0" t="n">
-        <v>0.0529</v>
+        <v>0.0567</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11159,22 +11165,22 @@
         <v>10</v>
       </c>
       <c r="E290" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F290" s="0" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="G290" s="0" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H290" s="0" t="n">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="I290" s="0" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="J290" s="0" t="n">
-        <v>0.09</v>
+        <v>0.07</v>
       </c>
       <c r="K290" s="0" t="n">
         <v>0.02</v>
@@ -11200,25 +11206,25 @@
         <v>0</v>
       </c>
       <c r="F291" s="0" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G291" s="0" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="H291" s="0" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="I291" s="0" t="n">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="J291" s="0" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="K291" s="0" t="n">
-        <v>0.044</v>
+        <v>0.034</v>
       </c>
       <c r="L291" s="0" t="n">
-        <v>0.024</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11235,28 +11241,28 @@
         <v>10</v>
       </c>
       <c r="E292" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F292" s="0" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G292" s="0" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H292" s="0" t="n">
         <v>0.44</v>
       </c>
       <c r="I292" s="0" t="n">
-        <v>0.34</v>
+        <v>0.24</v>
       </c>
       <c r="J292" s="0" t="n">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="K292" s="0" t="n">
-        <v>0.064</v>
+        <v>0.054</v>
       </c>
       <c r="L292" s="0" t="n">
-        <v>0.034</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11273,22 +11279,22 @@
         <v>10</v>
       </c>
       <c r="E293" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F293" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="F293" s="0" t="n">
-        <v>0.3</v>
-      </c>
       <c r="G293" s="0" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H293" s="0" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="I293" s="0" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="J293" s="0" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="K293" s="0" t="n">
         <v>1</v>
@@ -11314,25 +11320,25 @@
         <v>0</v>
       </c>
       <c r="F294" s="0" t="n">
+        <v>0.0357</v>
+      </c>
+      <c r="G294" s="0" t="n">
         <v>0.0714</v>
       </c>
-      <c r="G294" s="0" t="n">
-        <v>0.1071</v>
-      </c>
       <c r="H294" s="0" t="n">
+        <v>0.1429</v>
+      </c>
+      <c r="I294" s="0" t="n">
         <v>0.1786</v>
       </c>
-      <c r="I294" s="0" t="n">
-        <v>0.2857</v>
-      </c>
       <c r="J294" s="0" t="n">
-        <v>0.4643</v>
+        <v>0.3214</v>
       </c>
       <c r="K294" s="0" t="n">
-        <v>0.7857</v>
+        <v>0.6071</v>
       </c>
       <c r="L294" s="0" t="n">
-        <v>0.8571</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11349,28 +11355,28 @@
         <v>10</v>
       </c>
       <c r="E295" s="0" t="n">
-        <v>0.0263</v>
+        <v>0</v>
       </c>
       <c r="F295" s="0" t="n">
-        <v>0.1316</v>
+        <v>0.0526</v>
       </c>
       <c r="G295" s="0" t="n">
-        <v>0.1842</v>
+        <v>0.0789</v>
       </c>
       <c r="H295" s="0" t="n">
         <v>0.2895</v>
       </c>
       <c r="I295" s="0" t="n">
-        <v>0.4474</v>
+        <v>0.3158</v>
       </c>
       <c r="J295" s="0" t="n">
-        <v>0.5789</v>
+        <v>0.4211</v>
       </c>
       <c r="K295" s="0" t="n">
-        <v>0.8421</v>
+        <v>0.7105</v>
       </c>
       <c r="L295" s="0" t="n">
-        <v>0.8947</v>
+        <v>0.8158</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11387,22 +11393,22 @@
         <v>10</v>
       </c>
       <c r="E296" s="0" t="n">
-        <v>0.1818</v>
+        <v>0</v>
       </c>
       <c r="F296" s="0" t="n">
+        <v>0.1333</v>
+      </c>
+      <c r="G296" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H296" s="0" t="n">
         <v>0.4</v>
       </c>
-      <c r="G296" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H296" s="0" t="n">
-        <v>0.3429</v>
-      </c>
       <c r="I296" s="0" t="n">
-        <v>0.3</v>
+        <v>0.2333</v>
       </c>
       <c r="J296" s="0" t="n">
-        <v>0.1636</v>
+        <v>0.1273</v>
       </c>
       <c r="K296" s="0" t="n">
         <v>0.0392</v>
@@ -11428,25 +11434,25 @@
         <v>0</v>
       </c>
       <c r="F297" s="0" t="n">
-        <v>0.1212</v>
+        <v>0.0606</v>
       </c>
       <c r="G297" s="0" t="n">
-        <v>0.1578</v>
+        <v>0.1052</v>
       </c>
       <c r="H297" s="0" t="n">
-        <v>0.1887</v>
+        <v>0.151</v>
       </c>
       <c r="I297" s="0" t="n">
-        <v>0.2051</v>
+        <v>0.1282</v>
       </c>
       <c r="J297" s="0" t="n">
-        <v>0.2031</v>
+        <v>0.1406</v>
       </c>
       <c r="K297" s="0" t="n">
-        <v>0.0833</v>
+        <v>0.0644</v>
       </c>
       <c r="L297" s="0" t="n">
-        <v>0.0467</v>
+        <v>0.0409</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11463,28 +11469,28 @@
         <v>10</v>
       </c>
       <c r="E298" s="0" t="n">
-        <v>0.0513</v>
+        <v>0</v>
       </c>
       <c r="F298" s="0" t="n">
-        <v>0.2326</v>
+        <v>0.093</v>
       </c>
       <c r="G298" s="0" t="n">
-        <v>0.2917</v>
+        <v>0.1249</v>
       </c>
       <c r="H298" s="0" t="n">
         <v>0.3492</v>
       </c>
       <c r="I298" s="0" t="n">
-        <v>0.3864</v>
+        <v>0.2727</v>
       </c>
       <c r="J298" s="0" t="n">
-        <v>0.3188</v>
+        <v>0.2319</v>
       </c>
       <c r="K298" s="0" t="n">
-        <v>0.119</v>
+        <v>0.1004</v>
       </c>
       <c r="L298" s="0" t="n">
-        <v>0.0655</v>
+        <v>0.0597</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11501,22 +11507,22 @@
         <v>10</v>
       </c>
       <c r="E299" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F299" s="0" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G299" s="0" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H299" s="0" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="I299" s="0" t="n">
         <v>0.14</v>
       </c>
       <c r="J299" s="0" t="n">
-        <v>0.07</v>
+        <v>0.11</v>
       </c>
       <c r="K299" s="0" t="n">
         <v>0.024</v>
@@ -11542,7 +11548,7 @@
         <v>0</v>
       </c>
       <c r="F300" s="0" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="G300" s="0" t="n">
         <v>0.5</v>
@@ -11551,13 +11557,13 @@
         <v>0.28</v>
       </c>
       <c r="I300" s="0" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="J300" s="0" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="K300" s="0" t="n">
-        <v>0.038</v>
+        <v>0.044</v>
       </c>
       <c r="L300" s="0" t="n">
         <v>0.023</v>
@@ -11577,25 +11583,25 @@
         <v>10</v>
       </c>
       <c r="E301" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F301" s="0" t="n">
         <v>0.6</v>
       </c>
       <c r="G301" s="0" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H301" s="0" t="n">
-        <v>0.48</v>
+        <v>0.4</v>
       </c>
       <c r="I301" s="0" t="n">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="J301" s="0" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="K301" s="0" t="n">
-        <v>0.062</v>
+        <v>0.068</v>
       </c>
       <c r="L301" s="0" t="n">
         <v>0.035</v>
@@ -11615,22 +11621,22 @@
         <v>10</v>
       </c>
       <c r="E302" s="0" t="n">
-        <v>0.0833</v>
+        <v>0</v>
       </c>
       <c r="F302" s="0" t="n">
-        <v>0.0833</v>
+        <v>0</v>
       </c>
       <c r="G302" s="0" t="n">
-        <v>0.1667</v>
+        <v>0</v>
       </c>
       <c r="H302" s="0" t="n">
-        <v>0.4167</v>
+        <v>0.25</v>
       </c>
       <c r="I302" s="0" t="n">
         <v>0.5833</v>
       </c>
       <c r="J302" s="0" t="n">
-        <v>0.5833</v>
+        <v>0.9167</v>
       </c>
       <c r="K302" s="0" t="n">
         <v>1</v>
@@ -11656,7 +11662,7 @@
         <v>0</v>
       </c>
       <c r="F303" s="0" t="n">
-        <v>0.0606</v>
+        <v>0.0909</v>
       </c>
       <c r="G303" s="0" t="n">
         <v>0.1515</v>
@@ -11665,13 +11671,13 @@
         <v>0.2121</v>
       </c>
       <c r="I303" s="0" t="n">
-        <v>0.303</v>
+        <v>0.3333</v>
       </c>
       <c r="J303" s="0" t="n">
-        <v>0.3939</v>
+        <v>0.4545</v>
       </c>
       <c r="K303" s="0" t="n">
-        <v>0.5758</v>
+        <v>0.6667</v>
       </c>
       <c r="L303" s="0" t="n">
         <v>0.697</v>
@@ -11691,25 +11697,25 @@
         <v>10</v>
       </c>
       <c r="E304" s="0" t="n">
-        <v>0.0222</v>
+        <v>0</v>
       </c>
       <c r="F304" s="0" t="n">
         <v>0.0667</v>
       </c>
       <c r="G304" s="0" t="n">
-        <v>0.1556</v>
+        <v>0.1111</v>
       </c>
       <c r="H304" s="0" t="n">
-        <v>0.2667</v>
+        <v>0.2222</v>
       </c>
       <c r="I304" s="0" t="n">
-        <v>0.3778</v>
+        <v>0.4</v>
       </c>
       <c r="J304" s="0" t="n">
-        <v>0.4444</v>
+        <v>0.5778</v>
       </c>
       <c r="K304" s="0" t="n">
-        <v>0.6889</v>
+        <v>0.7556</v>
       </c>
       <c r="L304" s="0" t="n">
         <v>0.7778</v>
@@ -11729,22 +11735,22 @@
         <v>10</v>
       </c>
       <c r="E305" s="0" t="n">
-        <v>0.1538</v>
+        <v>0</v>
       </c>
       <c r="F305" s="0" t="n">
-        <v>0.1176</v>
+        <v>0</v>
       </c>
       <c r="G305" s="0" t="n">
-        <v>0.1818</v>
+        <v>0</v>
       </c>
       <c r="H305" s="0" t="n">
-        <v>0.2703</v>
+        <v>0.1622</v>
       </c>
       <c r="I305" s="0" t="n">
         <v>0.2258</v>
       </c>
       <c r="J305" s="0" t="n">
-        <v>0.125</v>
+        <v>0.1964</v>
       </c>
       <c r="K305" s="0" t="n">
         <v>0.0469</v>
@@ -11770,7 +11776,7 @@
         <v>0</v>
       </c>
       <c r="F306" s="0" t="n">
-        <v>0.1053</v>
+        <v>0.1579</v>
       </c>
       <c r="G306" s="0" t="n">
         <v>0.2325</v>
@@ -11779,13 +11785,13 @@
         <v>0.2414</v>
       </c>
       <c r="I306" s="0" t="n">
-        <v>0.241</v>
+        <v>0.265</v>
       </c>
       <c r="J306" s="0" t="n">
-        <v>0.1955</v>
+        <v>0.2256</v>
       </c>
       <c r="K306" s="0" t="n">
-        <v>0.0713</v>
+        <v>0.0826</v>
       </c>
       <c r="L306" s="0" t="n">
         <v>0.0445</v>
@@ -11805,25 +11811,25 @@
         <v>10</v>
       </c>
       <c r="E307" s="0" t="n">
-        <v>0.0434</v>
+        <v>0</v>
       </c>
       <c r="F307" s="0" t="n">
         <v>0.1201</v>
       </c>
       <c r="G307" s="0" t="n">
-        <v>0.2546</v>
+        <v>0.1818</v>
       </c>
       <c r="H307" s="0" t="n">
-        <v>0.3429</v>
+        <v>0.2857</v>
       </c>
       <c r="I307" s="0" t="n">
-        <v>0.3579</v>
+        <v>0.3789</v>
       </c>
       <c r="J307" s="0" t="n">
-        <v>0.2759</v>
+        <v>0.3586</v>
       </c>
       <c r="K307" s="0" t="n">
-        <v>0.1138</v>
+        <v>0.1248</v>
       </c>
       <c r="L307" s="0" t="n">
         <v>0.067</v>
@@ -11846,25 +11852,25 @@
         <v>1</v>
       </c>
       <c r="F308" s="0" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G308" s="0" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H308" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I308" s="0" t="n">
         <v>0.08</v>
       </c>
-      <c r="I308" s="0" t="n">
+      <c r="J308" s="0" t="n">
         <v>0.06</v>
       </c>
-      <c r="J308" s="0" t="n">
-        <v>0.04</v>
-      </c>
       <c r="K308" s="0" t="n">
-        <v>0.014</v>
+        <v>0.012</v>
       </c>
       <c r="L308" s="0" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11884,16 +11890,16 @@
         <v>0</v>
       </c>
       <c r="F309" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G309" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H309" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="G309" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H309" s="0" t="n">
-        <v>0.16</v>
-      </c>
       <c r="I309" s="0" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="J309" s="0" t="n">
         <v>0.06</v>
@@ -11925,22 +11931,22 @@
         <v>0.6</v>
       </c>
       <c r="G310" s="0" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H310" s="0" t="n">
-        <v>0.24</v>
+        <v>0.36</v>
       </c>
       <c r="I310" s="0" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="J310" s="0" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="K310" s="0" t="n">
-        <v>0.032</v>
+        <v>0.03</v>
       </c>
       <c r="L310" s="0" t="n">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11960,25 +11966,25 @@
         <v>0.1</v>
       </c>
       <c r="F311" s="0" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G311" s="0" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H311" s="0" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I311" s="0" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="J311" s="0" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="K311" s="0" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="L311" s="0" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11998,16 +12004,16 @@
         <v>0</v>
       </c>
       <c r="F312" s="0" t="n">
-        <v>0.0526</v>
+        <v>0.1053</v>
       </c>
       <c r="G312" s="0" t="n">
-        <v>0.2105</v>
+        <v>0.1579</v>
       </c>
       <c r="H312" s="0" t="n">
-        <v>0.2105</v>
+        <v>0.2632</v>
       </c>
       <c r="I312" s="0" t="n">
-        <v>0.2632</v>
+        <v>0.3158</v>
       </c>
       <c r="J312" s="0" t="n">
         <v>0.3158</v>
@@ -12039,22 +12045,22 @@
         <v>0.1034</v>
       </c>
       <c r="G313" s="0" t="n">
-        <v>0.2069</v>
+        <v>0.1379</v>
       </c>
       <c r="H313" s="0" t="n">
-        <v>0.2069</v>
+        <v>0.3103</v>
       </c>
       <c r="I313" s="0" t="n">
-        <v>0.2759</v>
+        <v>0.3448</v>
       </c>
       <c r="J313" s="0" t="n">
-        <v>0.3448</v>
+        <v>0.4138</v>
       </c>
       <c r="K313" s="0" t="n">
+        <v>0.5172</v>
+      </c>
+      <c r="L313" s="0" t="n">
         <v>0.5517</v>
-      </c>
-      <c r="L313" s="0" t="n">
-        <v>0.5862</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12074,25 +12080,25 @@
         <v>0.1818</v>
       </c>
       <c r="F314" s="0" t="n">
-        <v>0.2667</v>
+        <v>0.1333</v>
       </c>
       <c r="G314" s="0" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H314" s="0" t="n">
-        <v>0.1143</v>
+        <v>0.2286</v>
       </c>
       <c r="I314" s="0" t="n">
-        <v>0.1</v>
+        <v>0.1333</v>
       </c>
       <c r="J314" s="0" t="n">
-        <v>0.0727</v>
+        <v>0.1091</v>
       </c>
       <c r="K314" s="0" t="n">
-        <v>0.0275</v>
+        <v>0.0235</v>
       </c>
       <c r="L314" s="0" t="n">
-        <v>0.0139</v>
+        <v>0.0119</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12112,16 +12118,16 @@
         <v>0</v>
       </c>
       <c r="F315" s="0" t="n">
-        <v>0.0833</v>
+        <v>0.1667</v>
       </c>
       <c r="G315" s="0" t="n">
-        <v>0.2758</v>
+        <v>0.2069</v>
       </c>
       <c r="H315" s="0" t="n">
-        <v>0.1818</v>
+        <v>0.2273</v>
       </c>
       <c r="I315" s="0" t="n">
-        <v>0.1449</v>
+        <v>0.1739</v>
       </c>
       <c r="J315" s="0" t="n">
         <v>0.1008</v>
@@ -12153,22 +12159,22 @@
         <v>0.1764</v>
       </c>
       <c r="G316" s="0" t="n">
-        <v>0.3077</v>
+        <v>0.2051</v>
       </c>
       <c r="H316" s="0" t="n">
-        <v>0.2222</v>
+        <v>0.3333</v>
       </c>
       <c r="I316" s="0" t="n">
-        <v>0.2025</v>
+        <v>0.2532</v>
       </c>
       <c r="J316" s="0" t="n">
-        <v>0.155</v>
+        <v>0.186</v>
       </c>
       <c r="K316" s="0" t="n">
-        <v>0.0605</v>
+        <v>0.0567</v>
       </c>
       <c r="L316" s="0" t="n">
-        <v>0.033</v>
+        <v>0.0311</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12185,28 +12191,28 @@
         <v>10</v>
       </c>
       <c r="E317" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F317" s="0" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G317" s="0" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H317" s="0" t="n">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="I317" s="0" t="n">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="J317" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="K317" s="0" t="n">
-        <v>0.026</v>
+        <v>0.024</v>
       </c>
       <c r="L317" s="0" t="n">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12226,25 +12232,25 @@
         <v>0</v>
       </c>
       <c r="F318" s="0" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G318" s="0" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H318" s="0" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="I318" s="0" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="J318" s="0" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="K318" s="0" t="n">
-        <v>0.02</v>
+        <v>0.016</v>
       </c>
       <c r="L318" s="0" t="n">
-        <v>0.012</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12261,28 +12267,28 @@
         <v>10</v>
       </c>
       <c r="E319" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F319" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G319" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H319" s="0" t="n">
         <v>0.4</v>
       </c>
-      <c r="G319" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H319" s="0" t="n">
-        <v>0.24</v>
-      </c>
       <c r="I319" s="0" t="n">
-        <v>0.18</v>
+        <v>0.28</v>
       </c>
       <c r="J319" s="0" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="K319" s="0" t="n">
-        <v>0.046</v>
+        <v>0.04</v>
       </c>
       <c r="L319" s="0" t="n">
-        <v>0.025</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12299,28 +12305,28 @@
         <v>10</v>
       </c>
       <c r="E320" s="0" t="n">
-        <v>0</v>
+        <v>0.0714</v>
       </c>
       <c r="F320" s="0" t="n">
-        <v>0</v>
+        <v>0.2143</v>
       </c>
       <c r="G320" s="0" t="n">
-        <v>0.1429</v>
+        <v>0.3571</v>
       </c>
       <c r="H320" s="0" t="n">
-        <v>0.2143</v>
+        <v>0.4286</v>
       </c>
       <c r="I320" s="0" t="n">
-        <v>0.3571</v>
+        <v>0.6429</v>
       </c>
       <c r="J320" s="0" t="n">
         <v>0.7143</v>
       </c>
       <c r="K320" s="0" t="n">
-        <v>0.9286</v>
+        <v>0.8571</v>
       </c>
       <c r="L320" s="0" t="n">
-        <v>0.9286</v>
+        <v>0.8571</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12340,25 +12346,25 @@
         <v>0</v>
       </c>
       <c r="F321" s="0" t="n">
-        <v>0.1176</v>
+        <v>0</v>
       </c>
       <c r="G321" s="0" t="n">
-        <v>0.1176</v>
+        <v>0</v>
       </c>
       <c r="H321" s="0" t="n">
-        <v>0.1765</v>
+        <v>0.2353</v>
       </c>
       <c r="I321" s="0" t="n">
-        <v>0.2353</v>
+        <v>0.2941</v>
       </c>
       <c r="J321" s="0" t="n">
-        <v>0.3529</v>
+        <v>0.2941</v>
       </c>
       <c r="K321" s="0" t="n">
-        <v>0.5882</v>
+        <v>0.4706</v>
       </c>
       <c r="L321" s="0" t="n">
-        <v>0.7059</v>
+        <v>0.4706</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12375,28 +12381,28 @@
         <v>10</v>
       </c>
       <c r="E322" s="0" t="n">
-        <v>0</v>
+        <v>0.0323</v>
       </c>
       <c r="F322" s="0" t="n">
-        <v>0.0645</v>
+        <v>0.0968</v>
       </c>
       <c r="G322" s="0" t="n">
-        <v>0.129</v>
+        <v>0.1613</v>
       </c>
       <c r="H322" s="0" t="n">
-        <v>0.1935</v>
+        <v>0.3226</v>
       </c>
       <c r="I322" s="0" t="n">
-        <v>0.2903</v>
+        <v>0.4516</v>
       </c>
       <c r="J322" s="0" t="n">
-        <v>0.5161</v>
+        <v>0.4839</v>
       </c>
       <c r="K322" s="0" t="n">
-        <v>0.7419</v>
+        <v>0.6452</v>
       </c>
       <c r="L322" s="0" t="n">
-        <v>0.8065</v>
+        <v>0.6452</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12413,28 +12419,28 @@
         <v>10</v>
       </c>
       <c r="E323" s="0" t="n">
-        <v>0</v>
+        <v>0.1333</v>
       </c>
       <c r="F323" s="0" t="n">
-        <v>0</v>
+        <v>0.3158</v>
       </c>
       <c r="G323" s="0" t="n">
-        <v>0.1667</v>
+        <v>0.4166</v>
       </c>
       <c r="H323" s="0" t="n">
-        <v>0.1538</v>
+        <v>0.3077</v>
       </c>
       <c r="I323" s="0" t="n">
-        <v>0.1562</v>
+        <v>0.2813</v>
       </c>
       <c r="J323" s="0" t="n">
         <v>0.1754</v>
       </c>
       <c r="K323" s="0" t="n">
-        <v>0.0506</v>
+        <v>0.0467</v>
       </c>
       <c r="L323" s="0" t="n">
-        <v>0.0256</v>
+        <v>0.0237</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12454,25 +12460,25 @@
         <v>0</v>
       </c>
       <c r="F324" s="0" t="n">
-        <v>0.1818</v>
+        <v>0</v>
       </c>
       <c r="G324" s="0" t="n">
-        <v>0.1481</v>
+        <v>0</v>
       </c>
       <c r="H324" s="0" t="n">
-        <v>0.1429</v>
+        <v>0.1905</v>
       </c>
       <c r="I324" s="0" t="n">
-        <v>0.1194</v>
+        <v>0.1493</v>
       </c>
       <c r="J324" s="0" t="n">
-        <v>0.1026</v>
+        <v>0.0855</v>
       </c>
       <c r="K324" s="0" t="n">
-        <v>0.0387</v>
+        <v>0.0309</v>
       </c>
       <c r="L324" s="0" t="n">
-        <v>0.0236</v>
+        <v>0.0157</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12489,28 +12495,28 @@
         <v>10</v>
       </c>
       <c r="E325" s="0" t="n">
-        <v>0</v>
+        <v>0.0626</v>
       </c>
       <c r="F325" s="0" t="n">
-        <v>0.1111</v>
+        <v>0.1667</v>
       </c>
       <c r="G325" s="0" t="n">
-        <v>0.1951</v>
+        <v>0.2439</v>
       </c>
       <c r="H325" s="0" t="n">
-        <v>0.2143</v>
+        <v>0.3572</v>
       </c>
       <c r="I325" s="0" t="n">
-        <v>0.2222</v>
+        <v>0.3457</v>
       </c>
       <c r="J325" s="0" t="n">
-        <v>0.2443</v>
+        <v>0.229</v>
       </c>
       <c r="K325" s="0" t="n">
-        <v>0.0866</v>
+        <v>0.0753</v>
       </c>
       <c r="L325" s="0" t="n">
-        <v>0.0485</v>
+        <v>0.0388</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12527,13 +12533,13 @@
         <v>10</v>
       </c>
       <c r="E326" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F326" s="0" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G326" s="0" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H326" s="0" t="n">
         <v>0.08</v>
@@ -12565,28 +12571,28 @@
         <v>10</v>
       </c>
       <c r="E327" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F327" s="0" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="G327" s="0" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H327" s="0" t="n">
-        <v>0.52</v>
+        <v>0.24</v>
       </c>
       <c r="I327" s="0" t="n">
-        <v>0.34</v>
+        <v>0.12</v>
       </c>
       <c r="J327" s="0" t="n">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
       <c r="K327" s="0" t="n">
-        <v>0.04</v>
+        <v>0.018</v>
       </c>
       <c r="L327" s="0" t="n">
-        <v>0.02</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12609,22 +12615,22 @@
         <v>0.8</v>
       </c>
       <c r="G328" s="0" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H328" s="0" t="n">
-        <v>0.6</v>
+        <v>0.32</v>
       </c>
       <c r="I328" s="0" t="n">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="J328" s="0" t="n">
-        <v>0.23</v>
+        <v>0.09</v>
       </c>
       <c r="K328" s="0" t="n">
-        <v>0.05</v>
+        <v>0.028</v>
       </c>
       <c r="L328" s="0" t="n">
-        <v>0.025</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12641,13 +12647,13 @@
         <v>10</v>
       </c>
       <c r="E329" s="0" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F329" s="0" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G329" s="0" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H329" s="0" t="n">
         <v>0.4</v>
@@ -12679,28 +12685,28 @@
         <v>10</v>
       </c>
       <c r="E330" s="0" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F330" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G330" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="G330" s="0" t="n">
-        <v>0.4</v>
-      </c>
       <c r="H330" s="0" t="n">
-        <v>0.65</v>
+        <v>0.3</v>
       </c>
       <c r="I330" s="0" t="n">
-        <v>0.85</v>
+        <v>0.3</v>
       </c>
       <c r="J330" s="0" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="K330" s="0" t="n">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="L330" s="0" t="n">
-        <v>1</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12723,22 +12729,22 @@
         <v>0.16</v>
       </c>
       <c r="G331" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H331" s="0" t="n">
         <v>0.32</v>
       </c>
-      <c r="H331" s="0" t="n">
-        <v>0.6</v>
-      </c>
       <c r="I331" s="0" t="n">
-        <v>0.8</v>
+        <v>0.36</v>
       </c>
       <c r="J331" s="0" t="n">
-        <v>0.92</v>
+        <v>0.36</v>
       </c>
       <c r="K331" s="0" t="n">
-        <v>1</v>
+        <v>0.56</v>
       </c>
       <c r="L331" s="0" t="n">
-        <v>1</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12755,13 +12761,13 @@
         <v>10</v>
       </c>
       <c r="E332" s="0" t="n">
-        <v>0</v>
+        <v>0.3333</v>
       </c>
       <c r="F332" s="0" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G332" s="0" t="n">
-        <v>0</v>
+        <v>0.2667</v>
       </c>
       <c r="H332" s="0" t="n">
         <v>0.1333</v>
@@ -12793,28 +12799,28 @@
         <v>10</v>
       </c>
       <c r="E333" s="0" t="n">
-        <v>0.0952</v>
+        <v>0</v>
       </c>
       <c r="F333" s="0" t="n">
-        <v>0.32</v>
+        <v>0.24</v>
       </c>
       <c r="G333" s="0" t="n">
-        <v>0.5333</v>
+        <v>0.2667</v>
       </c>
       <c r="H333" s="0" t="n">
-        <v>0.5778</v>
+        <v>0.2667</v>
       </c>
       <c r="I333" s="0" t="n">
-        <v>0.4857</v>
+        <v>0.1714</v>
       </c>
       <c r="J333" s="0" t="n">
-        <v>0.3333</v>
+        <v>0.1</v>
       </c>
       <c r="K333" s="0" t="n">
-        <v>0.0769</v>
+        <v>0.0346</v>
       </c>
       <c r="L333" s="0" t="n">
-        <v>0.0392</v>
+        <v>0.0216</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12837,22 +12843,22 @@
         <v>0.2667</v>
       </c>
       <c r="G334" s="0" t="n">
-        <v>0.4571</v>
+        <v>0.3429</v>
       </c>
       <c r="H334" s="0" t="n">
-        <v>0.6</v>
+        <v>0.32</v>
       </c>
       <c r="I334" s="0" t="n">
-        <v>0.5333</v>
+        <v>0.24</v>
       </c>
       <c r="J334" s="0" t="n">
-        <v>0.368</v>
+        <v>0.144</v>
       </c>
       <c r="K334" s="0" t="n">
-        <v>0.0952</v>
+        <v>0.0533</v>
       </c>
       <c r="L334" s="0" t="n">
-        <v>0.0488</v>
+        <v>0.0312</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12869,28 +12875,28 @@
         <v>10</v>
       </c>
       <c r="E335" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F335" s="0" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G335" s="0" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H335" s="0" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I335" s="0" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J335" s="0" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K335" s="0" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
       <c r="L335" s="0" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12910,25 +12916,25 @@
         <v>0</v>
       </c>
       <c r="F336" s="0" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G336" s="0" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H336" s="0" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="I336" s="0" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="J336" s="0" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="K336" s="0" t="n">
-        <v>0.03</v>
+        <v>0.002</v>
       </c>
       <c r="L336" s="0" t="n">
-        <v>0.016</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12945,28 +12951,28 @@
         <v>10</v>
       </c>
       <c r="E337" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F337" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G337" s="0" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H337" s="0" t="n">
-        <v>0.48</v>
+        <v>0.04</v>
       </c>
       <c r="I337" s="0" t="n">
-        <v>0.26</v>
+        <v>0.02</v>
       </c>
       <c r="J337" s="0" t="n">
-        <v>0.16</v>
+        <v>0.01</v>
       </c>
       <c r="K337" s="0" t="n">
-        <v>0.036</v>
+        <v>0.006</v>
       </c>
       <c r="L337" s="0" t="n">
-        <v>0.02</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12983,28 +12989,28 @@
         <v>10</v>
       </c>
       <c r="E338" s="0" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="F338" s="0" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="G338" s="0" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="H338" s="0" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="I338" s="0" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="J338" s="0" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="K338" s="0" t="n">
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
       <c r="L338" s="0" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13024,25 +13030,25 @@
         <v>0</v>
       </c>
       <c r="F339" s="0" t="n">
-        <v>0.0952</v>
+        <v>0</v>
       </c>
       <c r="G339" s="0" t="n">
-        <v>0.1667</v>
+        <v>0</v>
       </c>
       <c r="H339" s="0" t="n">
-        <v>0.2619</v>
+        <v>0.0238</v>
       </c>
       <c r="I339" s="0" t="n">
-        <v>0.2857</v>
+        <v>0.0238</v>
       </c>
       <c r="J339" s="0" t="n">
-        <v>0.3571</v>
+        <v>0.0238</v>
       </c>
       <c r="K339" s="0" t="n">
-        <v>0.3571</v>
+        <v>0.0238</v>
       </c>
       <c r="L339" s="0" t="n">
-        <v>0.381</v>
+        <v>0.0238</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13059,28 +13065,28 @@
         <v>10</v>
       </c>
       <c r="E340" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F340" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G340" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H340" s="0" t="n">
         <v>0.02</v>
       </c>
-      <c r="F340" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G340" s="0" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="H340" s="0" t="n">
-        <v>0.24</v>
-      </c>
       <c r="I340" s="0" t="n">
-        <v>0.26</v>
+        <v>0.02</v>
       </c>
       <c r="J340" s="0" t="n">
-        <v>0.32</v>
+        <v>0.02</v>
       </c>
       <c r="K340" s="0" t="n">
-        <v>0.36</v>
+        <v>0.06</v>
       </c>
       <c r="L340" s="0" t="n">
-        <v>0.4</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13097,28 +13103,28 @@
         <v>10</v>
       </c>
       <c r="E341" s="0" t="n">
-        <v>0.2222</v>
+        <v>0</v>
       </c>
       <c r="F341" s="0" t="n">
-        <v>0.1538</v>
+        <v>0</v>
       </c>
       <c r="G341" s="0" t="n">
-        <v>0.1111</v>
+        <v>0</v>
       </c>
       <c r="H341" s="0" t="n">
-        <v>0.0606</v>
+        <v>0</v>
       </c>
       <c r="I341" s="0" t="n">
-        <v>0.0345</v>
+        <v>0</v>
       </c>
       <c r="J341" s="0" t="n">
-        <v>0.0185</v>
+        <v>0</v>
       </c>
       <c r="K341" s="0" t="n">
-        <v>0.0118</v>
+        <v>0.0079</v>
       </c>
       <c r="L341" s="0" t="n">
-        <v>0.0079</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13138,25 +13144,25 @@
         <v>0</v>
       </c>
       <c r="F342" s="0" t="n">
-        <v>0.1702</v>
+        <v>0</v>
       </c>
       <c r="G342" s="0" t="n">
-        <v>0.2693</v>
+        <v>0</v>
       </c>
       <c r="H342" s="0" t="n">
-        <v>0.3284</v>
+        <v>0.0298</v>
       </c>
       <c r="I342" s="0" t="n">
-        <v>0.2609</v>
+        <v>0.0217</v>
       </c>
       <c r="J342" s="0" t="n">
-        <v>0.2113</v>
+        <v>0.0141</v>
       </c>
       <c r="K342" s="0" t="n">
-        <v>0.0554</v>
+        <v>0.0037</v>
       </c>
       <c r="L342" s="0" t="n">
-        <v>0.0307</v>
+        <v>0.0019</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13173,28 +13179,28 @@
         <v>10</v>
       </c>
       <c r="E343" s="0" t="n">
-        <v>0.0392</v>
+        <v>0</v>
       </c>
       <c r="F343" s="0" t="n">
-        <v>0.1818</v>
+        <v>0</v>
       </c>
       <c r="G343" s="0" t="n">
-        <v>0.2667</v>
+        <v>0</v>
       </c>
       <c r="H343" s="0" t="n">
-        <v>0.32</v>
+        <v>0.0267</v>
       </c>
       <c r="I343" s="0" t="n">
-        <v>0.26</v>
+        <v>0.02</v>
       </c>
       <c r="J343" s="0" t="n">
-        <v>0.2133</v>
+        <v>0.0133</v>
       </c>
       <c r="K343" s="0" t="n">
-        <v>0.0655</v>
+        <v>0.0109</v>
       </c>
       <c r="L343" s="0" t="n">
-        <v>0.0381</v>
+        <v>0.0057</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13211,28 +13217,28 @@
         <v>10</v>
       </c>
       <c r="E344" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F344" s="0" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G344" s="0" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H344" s="0" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="I344" s="0" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J344" s="0" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="K344" s="0" t="n">
-        <v>0.012</v>
+        <v>0.002</v>
       </c>
       <c r="L344" s="0" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13249,28 +13255,28 @@
         <v>10</v>
       </c>
       <c r="E345" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F345" s="0" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G345" s="0" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H345" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="I345" s="0" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="J345" s="0" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="K345" s="0" t="n">
-        <v>0.036</v>
+        <v>0.024</v>
       </c>
       <c r="L345" s="0" t="n">
-        <v>0.02</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13293,22 +13299,22 @@
         <v>0.8</v>
       </c>
       <c r="G346" s="0" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H346" s="0" t="n">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="I346" s="0" t="n">
-        <v>0.26</v>
+        <v>0.12</v>
       </c>
       <c r="J346" s="0" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="K346" s="0" t="n">
-        <v>0.048</v>
+        <v>0.026</v>
       </c>
       <c r="L346" s="0" t="n">
-        <v>0.026</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13325,28 +13331,28 @@
         <v>10</v>
       </c>
       <c r="E347" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F347" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G347" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H347" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I347" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J347" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K347" s="0" t="n">
         <v>0.1429</v>
       </c>
-      <c r="F347" s="0" t="n">
-        <v>0.1429</v>
-      </c>
-      <c r="G347" s="0" t="n">
-        <v>0.1429</v>
-      </c>
-      <c r="H347" s="0" t="n">
+      <c r="L347" s="0" t="n">
         <v>0.2857</v>
-      </c>
-      <c r="I347" s="0" t="n">
-        <v>0.7143</v>
-      </c>
-      <c r="J347" s="0" t="n">
-        <v>0.7143</v>
-      </c>
-      <c r="K347" s="0" t="n">
-        <v>0.8571</v>
-      </c>
-      <c r="L347" s="0" t="n">
-        <v>0.8571</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13363,28 +13369,28 @@
         <v>10</v>
       </c>
       <c r="E348" s="0" t="n">
-        <v>0</v>
+        <v>0.0303</v>
       </c>
       <c r="F348" s="0" t="n">
-        <v>0.0909</v>
+        <v>0.1212</v>
       </c>
       <c r="G348" s="0" t="n">
-        <v>0.1515</v>
+        <v>0.1212</v>
       </c>
       <c r="H348" s="0" t="n">
         <v>0.1515</v>
       </c>
       <c r="I348" s="0" t="n">
-        <v>0.2424</v>
+        <v>0.1818</v>
       </c>
       <c r="J348" s="0" t="n">
+        <v>0.2727</v>
+      </c>
+      <c r="K348" s="0" t="n">
         <v>0.3636</v>
       </c>
-      <c r="K348" s="0" t="n">
-        <v>0.5455</v>
-      </c>
       <c r="L348" s="0" t="n">
-        <v>0.6061</v>
+        <v>0.4848</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13407,22 +13413,22 @@
         <v>0.1</v>
       </c>
       <c r="G349" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H349" s="0" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I349" s="0" t="n">
         <v>0.15</v>
       </c>
-      <c r="H349" s="0" t="n">
-        <v>0.175</v>
-      </c>
-      <c r="I349" s="0" t="n">
+      <c r="J349" s="0" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="K349" s="0" t="n">
         <v>0.325</v>
       </c>
-      <c r="J349" s="0" t="n">
-        <v>0.425</v>
-      </c>
-      <c r="K349" s="0" t="n">
-        <v>0.6</v>
-      </c>
       <c r="L349" s="0" t="n">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13439,28 +13445,28 @@
         <v>10</v>
       </c>
       <c r="E350" s="0" t="n">
-        <v>0.2501</v>
+        <v>0</v>
       </c>
       <c r="F350" s="0" t="n">
-        <v>0.1667</v>
+        <v>0</v>
       </c>
       <c r="G350" s="0" t="n">
-        <v>0.1177</v>
+        <v>0</v>
       </c>
       <c r="H350" s="0" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="I350" s="0" t="n">
-        <v>0.1754</v>
+        <v>0</v>
       </c>
       <c r="J350" s="0" t="n">
-        <v>0.0935</v>
+        <v>0</v>
       </c>
       <c r="K350" s="0" t="n">
-        <v>0.0237</v>
+        <v>0.0039</v>
       </c>
       <c r="L350" s="0" t="n">
-        <v>0.0119</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13477,28 +13483,28 @@
         <v>10</v>
       </c>
       <c r="E351" s="0" t="n">
-        <v>0</v>
+        <v>0.0588</v>
       </c>
       <c r="F351" s="0" t="n">
-        <v>0.1579</v>
+        <v>0.2105</v>
       </c>
       <c r="G351" s="0" t="n">
-        <v>0.2325</v>
+        <v>0.186</v>
       </c>
       <c r="H351" s="0" t="n">
         <v>0.1724</v>
       </c>
       <c r="I351" s="0" t="n">
-        <v>0.1928</v>
+        <v>0.1446</v>
       </c>
       <c r="J351" s="0" t="n">
-        <v>0.1804</v>
+        <v>0.1353</v>
       </c>
       <c r="K351" s="0" t="n">
-        <v>0.0675</v>
+        <v>0.045</v>
       </c>
       <c r="L351" s="0" t="n">
-        <v>0.0387</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13521,22 +13527,22 @@
         <v>0.1778</v>
       </c>
       <c r="G352" s="0" t="n">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="H352" s="0" t="n">
-        <v>0.2154</v>
+        <v>0.1538</v>
       </c>
       <c r="I352" s="0" t="n">
-        <v>0.2889</v>
+        <v>0.1333</v>
       </c>
       <c r="J352" s="0" t="n">
-        <v>0.2429</v>
+        <v>0.1286</v>
       </c>
       <c r="K352" s="0" t="n">
-        <v>0.0889</v>
+        <v>0.0481</v>
       </c>
       <c r="L352" s="0" t="n">
-        <v>0.05</v>
+        <v>0.0346</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13556,7 +13562,7 @@
         <v>1</v>
       </c>
       <c r="F353" s="0" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G353" s="0" t="n">
         <v>0.2</v>
@@ -13594,25 +13600,25 @@
         <v>0</v>
       </c>
       <c r="F354" s="0" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G354" s="0" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H354" s="0" t="n">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="I354" s="0" t="n">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="J354" s="0" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="K354" s="0" t="n">
-        <v>0.032</v>
+        <v>0.03</v>
       </c>
       <c r="L354" s="0" t="n">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13635,22 +13641,22 @@
         <v>1</v>
       </c>
       <c r="G355" s="0" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H355" s="0" t="n">
-        <v>0.6</v>
+        <v>0.56</v>
       </c>
       <c r="I355" s="0" t="n">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="J355" s="0" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="K355" s="0" t="n">
-        <v>0.036</v>
+        <v>0.034</v>
       </c>
       <c r="L355" s="0" t="n">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13670,7 +13676,7 @@
         <v>0.5</v>
       </c>
       <c r="F356" s="0" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G356" s="0" t="n">
         <v>1</v>
@@ -13708,25 +13714,25 @@
         <v>0</v>
       </c>
       <c r="F357" s="0" t="n">
-        <v>0.1875</v>
+        <v>0.25</v>
       </c>
       <c r="G357" s="0" t="n">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="H357" s="0" t="n">
-        <v>0.8125</v>
+        <v>0.75</v>
       </c>
       <c r="I357" s="0" t="n">
-        <v>0.8125</v>
+        <v>0.9375</v>
       </c>
       <c r="J357" s="0" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="K357" s="0" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="L357" s="0" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13749,22 +13755,22 @@
         <v>0.2778</v>
       </c>
       <c r="G358" s="0" t="n">
-        <v>0.5556</v>
+        <v>0.5</v>
       </c>
       <c r="H358" s="0" t="n">
-        <v>0.8333</v>
+        <v>0.7778</v>
       </c>
       <c r="I358" s="0" t="n">
-        <v>0.8333</v>
+        <v>0.9444</v>
       </c>
       <c r="J358" s="0" t="n">
-        <v>1</v>
+        <v>0.9444</v>
       </c>
       <c r="K358" s="0" t="n">
-        <v>1</v>
+        <v>0.9444</v>
       </c>
       <c r="L358" s="0" t="n">
-        <v>1</v>
+        <v>0.9444</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13784,7 +13790,7 @@
         <v>0.6667</v>
       </c>
       <c r="F359" s="0" t="n">
-        <v>0.5714</v>
+        <v>0.2857</v>
       </c>
       <c r="G359" s="0" t="n">
         <v>0.3333</v>
@@ -13822,25 +13828,25 @@
         <v>0</v>
       </c>
       <c r="F360" s="0" t="n">
-        <v>0.2857</v>
+        <v>0.381</v>
       </c>
       <c r="G360" s="0" t="n">
-        <v>0.6154</v>
+        <v>0.5385</v>
       </c>
       <c r="H360" s="0" t="n">
-        <v>0.6341</v>
+        <v>0.5854</v>
       </c>
       <c r="I360" s="0" t="n">
-        <v>0.3939</v>
+        <v>0.4545</v>
       </c>
       <c r="J360" s="0" t="n">
-        <v>0.2759</v>
+        <v>0.2586</v>
       </c>
       <c r="K360" s="0" t="n">
-        <v>0.062</v>
+        <v>0.0581</v>
       </c>
       <c r="L360" s="0" t="n">
-        <v>0.0315</v>
+        <v>0.0295</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13863,28 +13869,28 @@
         <v>0.4348</v>
       </c>
       <c r="G361" s="0" t="n">
-        <v>0.7143</v>
+        <v>0.6429</v>
       </c>
       <c r="H361" s="0" t="n">
-        <v>0.6977</v>
+        <v>0.6512</v>
       </c>
       <c r="I361" s="0" t="n">
-        <v>0.4412</v>
+        <v>0.5</v>
       </c>
       <c r="J361" s="0" t="n">
-        <v>0.3051</v>
+        <v>0.2881</v>
       </c>
       <c r="K361" s="0" t="n">
-        <v>0.0695</v>
+        <v>0.0656</v>
       </c>
       <c r="L361" s="0" t="n">
-        <v>0.0354</v>
+        <v>0.0334</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -13899,13 +13905,18 @@
   </sheetPr>
   <dimension ref="A1:L121"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I91" activeCellId="0" sqref="I91"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G109" activeCellId="0" sqref="G109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.8010204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="5" style="0" width="17.38"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17383,25 +17394,25 @@
         <v>0.0263157894736842</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>0.0526315789473684</v>
+        <v>0.1</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>0.0605263157894737</v>
+        <v>0.136340852130326</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>0.118985853962971</v>
+        <v>0.245100725080853</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>0.153397036345832</v>
+        <v>0.301090341968094</v>
       </c>
       <c r="J92" s="0" t="n">
-        <v>0.201510145804018</v>
+        <v>0.331839109311289</v>
       </c>
       <c r="K92" s="0" t="n">
-        <v>0.221242939018103</v>
+        <v>0.354257423356105</v>
       </c>
       <c r="L92" s="0" t="n">
-        <v>0.227258303357559</v>
+        <v>0.357003192746135</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17424,22 +17435,22 @@
         <v>0.0131578947368421</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>0.108813700918964</v>
+        <v>0.0307017543859649</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>0.15477702552006</v>
+        <v>0.0382205513784461</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>0.163369936368609</v>
+        <v>0.0617603035366193</v>
       </c>
       <c r="J93" s="0" t="n">
-        <v>0.178422902723616</v>
+        <v>0.0746131680477391</v>
       </c>
       <c r="K93" s="0" t="n">
-        <v>0.194904983671433</v>
+        <v>0.0897379906517296</v>
       </c>
       <c r="L93" s="0" t="n">
-        <v>0.196480224590633</v>
+        <v>0.0897379906517296</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17459,25 +17470,25 @@
         <v>0.0175438596491228</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>0.0482456140350877</v>
+        <v>0.087719298245614</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>0.113311055416319</v>
+        <v>0.138401559454191</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>0.218946414358987</v>
+        <v>0.239505864840081</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>0.263582770749849</v>
+        <v>0.319503300349933</v>
       </c>
       <c r="J94" s="0" t="n">
-        <v>0.326155912037952</v>
+        <v>0.362668567002978</v>
       </c>
       <c r="K94" s="0" t="n">
-        <v>0.361606447237629</v>
+        <v>0.400276298984656</v>
       </c>
       <c r="L94" s="0" t="n">
-        <v>0.36921834538233</v>
+        <v>0.402888704314921</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17494,28 +17505,28 @@
         <v>10</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>0.008</v>
+        <v>0.11</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>0.0213333333333333</v>
+        <v>0.127777777777778</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>0.0213333333333333</v>
+        <v>0.16030525030525</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>0.0257777777777778</v>
+        <v>0.16030525030525</v>
       </c>
       <c r="J95" s="0" t="n">
-        <v>0.0311870948288859</v>
+        <v>0.179027846753505</v>
       </c>
       <c r="K95" s="0" t="n">
-        <v>0.0386172844624697</v>
+        <v>0.193175195731609</v>
       </c>
       <c r="L95" s="0" t="n">
-        <v>0.0417328911607581</v>
+        <v>0.194309053999326</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17532,28 +17543,28 @@
         <v>10</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>0.0294117647058823</v>
+        <v>0</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>0.0588235294117647</v>
+        <v>0</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>0.0588235294117647</v>
+        <v>0.00367647058823529</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>0.0637254901960784</v>
+        <v>0.00677244582043344</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>0.0682503770739065</v>
+        <v>0.00981504216931782</v>
       </c>
       <c r="J96" s="0" t="n">
-        <v>0.0796854864839436</v>
+        <v>0.0162331868227566</v>
       </c>
       <c r="K96" s="0" t="n">
-        <v>0.0836744073231939</v>
+        <v>0.0196583727067041</v>
       </c>
       <c r="L96" s="0" t="n">
-        <v>0.0847204188859882</v>
+        <v>0.0206731765339942</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17573,25 +17584,25 @@
         <v>0.0169491525423729</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>0.0440677966101695</v>
+        <v>0.0466101694915254</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>0.0553672316384181</v>
+        <v>0.0645009416195857</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>0.060075329566855</v>
+        <v>0.0879346889605587</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>0.0683808971944565</v>
+        <v>0.0931947707840538</v>
       </c>
       <c r="J97" s="0" t="n">
-        <v>0.0843546794113494</v>
+        <v>0.114890882269676</v>
       </c>
       <c r="K97" s="0" t="n">
-        <v>0.0951853696523113</v>
+        <v>0.129378849352117</v>
       </c>
       <c r="L97" s="0" t="n">
-        <v>0.0989002868983551</v>
+        <v>0.131629700487833</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17608,28 +17619,28 @@
         <v>10</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>0.275</v>
+        <v>0.05</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>0.341666666666667</v>
+        <v>0.05</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>0.399003623188406</v>
+        <v>0.211675407925408</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>0.48350097768576</v>
+        <v>0.211675407925408</v>
       </c>
       <c r="J98" s="0" t="n">
-        <v>0.48350097768576</v>
+        <v>0.211675407925408</v>
       </c>
       <c r="K98" s="0" t="n">
-        <v>0.489870404437353</v>
+        <v>0.223430710089119</v>
       </c>
       <c r="L98" s="0" t="n">
-        <v>0.489870404437353</v>
+        <v>0.223430710089119</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17649,25 +17660,25 @@
         <v>0</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>0.0261904761904762</v>
+        <v>0.00714285714285714</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>0.0369047619047619</v>
+        <v>0.0150793650793651</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>0.055952380952381</v>
+        <v>0.0342120181405896</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>0.0728233337738426</v>
+        <v>0.0383648420608554</v>
       </c>
       <c r="J99" s="0" t="n">
-        <v>0.101397745936704</v>
+        <v>0.0536945985306523</v>
       </c>
       <c r="K99" s="0" t="n">
-        <v>0.127853380553443</v>
+        <v>0.0774792552444161</v>
       </c>
       <c r="L99" s="0" t="n">
-        <v>0.130550372471917</v>
+        <v>0.0815448065614353</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17684,28 +17695,28 @@
         <v>10</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>0.0263157894736842</v>
+        <v>0</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>0.131578947368421</v>
+        <v>0.0236842105263158</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>0.176315789473684</v>
+        <v>0.0324561403508772</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>0.231682875667429</v>
+        <v>0.133813080194659</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>0.296417745141454</v>
+        <v>0.141157021443129</v>
       </c>
       <c r="J100" s="0" t="n">
-        <v>0.335144481814525</v>
+        <v>0.163357491006698</v>
       </c>
       <c r="K100" s="0" t="n">
-        <v>0.369905815498866</v>
+        <v>0.199309964305454</v>
       </c>
       <c r="L100" s="0" t="n">
-        <v>0.372741902821734</v>
+        <v>0.203859164745522</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17722,28 +17733,28 @@
         <v>10</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>0.151284801678108</v>
+        <v>0.0370629370629371</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>0.180218326307472</v>
+        <v>0.0855494634564402</v>
       </c>
       <c r="J101" s="0" t="n">
-        <v>0.180218326307472</v>
+        <v>0.125363451240604</v>
       </c>
       <c r="K101" s="0" t="n">
-        <v>0.212375684783527</v>
+        <v>0.133766812585142</v>
       </c>
       <c r="L101" s="0" t="n">
-        <v>0.212375684783527</v>
+        <v>0.133766812585142</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17763,25 +17774,25 @@
         <v>0</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>0.0272727272727273</v>
+        <v>0.0580808080808081</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>0.0786796536796537</v>
+        <v>0.0934343434343434</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>0.111525595616505</v>
+        <v>0.113352191996693</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>0.133290849353273</v>
+        <v>0.140877111814103</v>
       </c>
       <c r="J102" s="0" t="n">
-        <v>0.146834000596959</v>
+        <v>0.16179154386946</v>
       </c>
       <c r="K102" s="0" t="n">
-        <v>0.162667656246008</v>
+        <v>0.186668996367855</v>
       </c>
       <c r="L102" s="0" t="n">
-        <v>0.16656889141483</v>
+        <v>0.187607044412229</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17798,28 +17809,28 @@
         <v>10</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>0.0222222222222222</v>
+        <v>0</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>0.0577777777777778</v>
+        <v>0.0425925925925926</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>0.120687830687831</v>
+        <v>0.0685185185185185</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>0.190582651097525</v>
+        <v>0.12588393608854</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>0.23491264415934</v>
+        <v>0.190697727946484</v>
       </c>
       <c r="J103" s="0" t="n">
-        <v>0.250697440336293</v>
+        <v>0.241383781796318</v>
       </c>
       <c r="K103" s="0" t="n">
-        <v>0.290835586040226</v>
+        <v>0.276614474418711</v>
       </c>
       <c r="L103" s="0" t="n">
-        <v>0.295307633798955</v>
+        <v>0.277661281656636</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17839,25 +17850,25 @@
         <v>0.1</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>0.15</v>
+        <v>0.149162210338681</v>
       </c>
       <c r="I104" s="0" t="n">
-        <v>0.156818181818182</v>
+        <v>0.149162210338681</v>
       </c>
       <c r="J104" s="0" t="n">
-        <v>0.164510489510489</v>
+        <v>0.162211855728752</v>
       </c>
       <c r="K104" s="0" t="n">
-        <v>0.170454900343844</v>
+        <v>0.162211855728752</v>
       </c>
       <c r="L104" s="0" t="n">
-        <v>0.170454900343844</v>
+        <v>0.162211855728752</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17877,25 +17888,25 @@
         <v>0</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>0.0175438596491228</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>0.0711779448621554</v>
+        <v>0.0723684210526316</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>0.0711779448621554</v>
+        <v>0.108709273182957</v>
       </c>
       <c r="I105" s="0" t="n">
-        <v>0.0796669092085052</v>
+        <v>0.116228070175439</v>
       </c>
       <c r="J105" s="0" t="n">
-        <v>0.0843801849351352</v>
+        <v>0.116228070175439</v>
       </c>
       <c r="K105" s="0" t="n">
-        <v>0.0876501791604973</v>
+        <v>0.122272452745771</v>
       </c>
       <c r="L105" s="0" t="n">
-        <v>0.0886841983932551</v>
+        <v>0.123099993295258</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17915,25 +17926,25 @@
         <v>0.0344827586206897</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0948275862068966</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>0.142884510125889</v>
+        <v>0.112068965517241</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>0.142884510125889</v>
+        <v>0.18764082435482</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>0.156940531968341</v>
+        <v>0.195851004978794</v>
       </c>
       <c r="J106" s="0" t="n">
-        <v>0.168055382120761</v>
+        <v>0.205310530535165</v>
       </c>
       <c r="K106" s="0" t="n">
-        <v>0.176252361760139</v>
+        <v>0.21229222699143</v>
       </c>
       <c r="L106" s="0" t="n">
-        <v>0.177404045250417</v>
+        <v>0.213159717774341</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17950,28 +17961,28 @@
         <v>10</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>0</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>0</v>
+        <v>0.185714285714286</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>0.0261904761904762</v>
+        <v>0.27797619047619</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>0.0404761904761905</v>
+        <v>0.298384353741497</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>0.059608843537415</v>
+        <v>0.3485520431949</v>
       </c>
       <c r="J107" s="0" t="n">
-        <v>0.104954363390729</v>
+        <v>0.362029132143687</v>
       </c>
       <c r="K107" s="0" t="n">
-        <v>0.111600983733935</v>
+        <v>0.369894924973681</v>
       </c>
       <c r="L107" s="0" t="n">
-        <v>0.111600983733935</v>
+        <v>0.369894924973681</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17991,25 +18002,25 @@
         <v>0</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>0.0686274509803921</v>
+        <v>0</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>0.0686274509803921</v>
+        <v>0</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>0.0779153766769866</v>
+        <v>0.0334623323013416</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>0.0866299736268777</v>
+        <v>0.0443555784887054</v>
       </c>
       <c r="J108" s="0" t="n">
-        <v>0.0951333749874219</v>
+        <v>0.0443555784887054</v>
       </c>
       <c r="K108" s="0" t="n">
-        <v>0.104096123228241</v>
+        <v>0.0510332058399545</v>
       </c>
       <c r="L108" s="0" t="n">
-        <v>0.105810746777342</v>
+        <v>0.0510332058399545</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18026,28 +18037,28 @@
         <v>10</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>0</v>
+        <v>0.032258064516129</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>0.0376344086021505</v>
+        <v>0.0838709677419355</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.125537634408602</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>0.0876061120543294</v>
+        <v>0.197531799929932</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>0.112443968343799</v>
+        <v>0.247761856611602</v>
       </c>
       <c r="J109" s="0" t="n">
-        <v>0.156523100089375</v>
+        <v>0.256891497512393</v>
       </c>
       <c r="K109" s="0" t="n">
-        <v>0.173022730517764</v>
+        <v>0.271852661726433</v>
       </c>
       <c r="L109" s="0" t="n">
-        <v>0.175033645158793</v>
+        <v>0.271852661726433</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18064,28 +18075,28 @@
         <v>10</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>0.037719298245614</v>
+        <v>0.25</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>0.0559011164274322</v>
+        <v>0.272222222222222</v>
       </c>
       <c r="J110" s="0" t="n">
-        <v>0.0559011164274322</v>
+        <v>0.272222222222222</v>
       </c>
       <c r="K110" s="0" t="n">
-        <v>0.0717875745157252</v>
+        <v>0.282986329297753</v>
       </c>
       <c r="L110" s="0" t="n">
-        <v>0.0717875745157252</v>
+        <v>0.282986329297753</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18102,28 +18113,28 @@
         <v>10</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>0.2</v>
+        <v>0.0958333333333333</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>0.358055555555555</v>
+        <v>0.129166666666667</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>0.518496156621157</v>
+        <v>0.158333333333333</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>0.613054777742278</v>
+        <v>0.158333333333333</v>
       </c>
       <c r="J111" s="0" t="n">
-        <v>0.64632758192866</v>
+        <v>0.158333333333333</v>
       </c>
       <c r="K111" s="0" t="n">
-        <v>0.64632758192866</v>
+        <v>0.163238091575655</v>
       </c>
       <c r="L111" s="0" t="n">
-        <v>0.64632758192866</v>
+        <v>0.164735264702533</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18146,22 +18157,22 @@
         <v>0.16</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>0.286444444444444</v>
+        <v>0.223333333333333</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>0.487854823539034</v>
+        <v>0.255333333333333</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>0.597359441793652</v>
+        <v>0.268666666666667</v>
       </c>
       <c r="J112" s="0" t="n">
-        <v>0.628205680003786</v>
+        <v>0.268666666666667</v>
       </c>
       <c r="K112" s="0" t="n">
-        <v>0.645560028000336</v>
+        <v>0.280179324628479</v>
       </c>
       <c r="L112" s="0" t="n">
-        <v>0.645560028000336</v>
+        <v>0.281948346173837</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18178,28 +18189,28 @@
         <v>10</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="J113" s="0" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="K113" s="0" t="n">
-        <v>0.128209728867624</v>
+        <v>0.00134981013659617</v>
       </c>
       <c r="L113" s="0" t="n">
-        <v>0.128814323789026</v>
+        <v>0.00134981013659617</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18219,25 +18230,25 @@
         <v>0</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>0.0646825396825397</v>
+        <v>0</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>0.118065003779289</v>
+        <v>0</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>0.17385030035406</v>
+        <v>0.00198412698412698</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>0.183702517102828</v>
+        <v>0.00198412698412698</v>
       </c>
       <c r="J114" s="0" t="n">
-        <v>0.197954874334637</v>
+        <v>0.00198412698412698</v>
       </c>
       <c r="K114" s="0" t="n">
-        <v>0.197954874334637</v>
+        <v>0.00198412698412698</v>
       </c>
       <c r="L114" s="0" t="n">
-        <v>0.198410014574724</v>
+        <v>0.00198412698412698</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18254,28 +18265,28 @@
         <v>10</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>0.152420634920635</v>
+        <v>0</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>0.204332915622389</v>
+        <v>0.00166666666666667</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>0.213298432863769</v>
+        <v>0.00166666666666667</v>
       </c>
       <c r="J115" s="0" t="n">
-        <v>0.226135294632137</v>
+        <v>0.00166666666666667</v>
       </c>
       <c r="K115" s="0" t="n">
-        <v>0.22974295013453</v>
+        <v>0.00202793453228557</v>
       </c>
       <c r="L115" s="0" t="n">
-        <v>0.230680339526886</v>
+        <v>0.00202793453228557</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18292,28 +18303,28 @@
         <v>10</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>0.142857142857143</v>
+        <v>0</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>0.142857142857143</v>
+        <v>0</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>0.142857142857143</v>
+        <v>0</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>0.157894736842105</v>
+        <v>0</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>0.196281520126848</v>
+        <v>0</v>
       </c>
       <c r="J116" s="0" t="n">
-        <v>0.196281520126848</v>
+        <v>0</v>
       </c>
       <c r="K116" s="0" t="n">
-        <v>0.199101068999028</v>
+        <v>0.000618429189857761</v>
       </c>
       <c r="L116" s="0" t="n">
-        <v>0.199101068999028</v>
+        <v>0.000941635395416908</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18330,28 +18341,28 @@
         <v>10</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>0.0484848484848485</v>
+        <v>0.121212121212121</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>0.0804713804713805</v>
+        <v>0.121212121212121</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>0.0804713804713805</v>
+        <v>0.127799736495389</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>0.0978512063986372</v>
+        <v>0.131510311634535</v>
       </c>
       <c r="J117" s="0" t="n">
-        <v>0.115975158948819</v>
+        <v>0.142499757918099</v>
       </c>
       <c r="K117" s="0" t="n">
-        <v>0.132234896536949</v>
+        <v>0.148767175386014</v>
       </c>
       <c r="L117" s="0" t="n">
-        <v>0.133910361200683</v>
+        <v>0.151442687976846</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18371,25 +18382,25 @@
         <v>0.025</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>0.08875</v>
+        <v>0.1</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>0.121041666666667</v>
+        <v>0.1</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>0.130252192982456</v>
+        <v>0.105434782608696</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>0.169125733175872</v>
+        <v>0.108496007098492</v>
       </c>
       <c r="J118" s="0" t="n">
-        <v>0.191276192006659</v>
+        <v>0.117562300282432</v>
       </c>
       <c r="K118" s="0" t="n">
-        <v>0.211151663328536</v>
+        <v>0.124139846100388</v>
       </c>
       <c r="L118" s="0" t="n">
-        <v>0.212961036991336</v>
+        <v>0.127010656141706</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18409,25 +18420,25 @@
         <v>0.5</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>0.7</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>0.7</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>0.7</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="J119" s="0" t="n">
-        <v>0.7</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="K119" s="0" t="n">
-        <v>0.7</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="L119" s="0" t="n">
-        <v>0.7</v>
+        <v>0.642857142857143</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18447,25 +18458,25 @@
         <v>0</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>0.119791666666667</v>
+        <v>0.169791666666667</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>0.351587301587302</v>
+        <v>0.317361111111111</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>0.588598207348207</v>
+        <v>0.537691822066822</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>0.588598207348207</v>
+        <v>0.615322390423197</v>
       </c>
       <c r="J120" s="0" t="n">
-        <v>0.640450582913818</v>
+        <v>0.615322390423197</v>
       </c>
       <c r="K120" s="0" t="n">
-        <v>0.640450582913818</v>
+        <v>0.615322390423197</v>
       </c>
       <c r="L120" s="0" t="n">
-        <v>0.640450582913818</v>
+        <v>0.615322390423197</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18488,28 +18499,28 @@
         <v>0.277777777777778</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>0.555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>0.805514855514855</v>
+        <v>0.736214711214711</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>0.805514855514855</v>
+        <v>0.815153096604709</v>
       </c>
       <c r="J121" s="0" t="n">
-        <v>0.857773109243697</v>
+        <v>0.815153096604709</v>
       </c>
       <c r="K121" s="0" t="n">
-        <v>0.857773109243697</v>
+        <v>0.815153096604709</v>
       </c>
       <c r="L121" s="0" t="n">
-        <v>0.857773109243697</v>
+        <v>0.815153096604709</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/all_results.xlsx
+++ b/all_results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="evaluation_Qwise" sheetId="1" state="visible" r:id="rId2"/>
@@ -155,18 +155,18 @@
   </sheetPr>
   <dimension ref="A1:L361"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A272" activeCellId="0" sqref="A272"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A318" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A272" activeCellId="1" sqref="A92:L121 A272"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="5" style="0" width="6.79"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.9132653061224"/>
+    <col collapsed="false" hidden="false" max="12" min="5" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10844,7 +10844,7 @@
         <v>0.034</v>
       </c>
       <c r="L281" s="0" t="n">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10882,7 +10882,7 @@
         <v>0.02</v>
       </c>
       <c r="L282" s="0" t="n">
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10920,7 +10920,7 @@
         <v>0.054</v>
       </c>
       <c r="L283" s="0" t="n">
-        <v>0.03</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10958,7 +10958,7 @@
         <v>0.68</v>
       </c>
       <c r="L284" s="0" t="n">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10996,7 +10996,7 @@
         <v>0.2941</v>
       </c>
       <c r="L285" s="0" t="n">
-        <v>0.3529</v>
+        <v>0.3824</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11034,7 +11034,7 @@
         <v>0.4576</v>
       </c>
       <c r="L286" s="0" t="n">
-        <v>0.5085</v>
+        <v>0.5424</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11072,7 +11072,7 @@
         <v>0.0648</v>
       </c>
       <c r="L287" s="0" t="n">
-        <v>0.0351</v>
+        <v>0.0371</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11110,7 +11110,7 @@
         <v>0.0375</v>
       </c>
       <c r="L288" s="0" t="n">
-        <v>0.0232</v>
+        <v>0.0251</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11148,7 +11148,7 @@
         <v>0.0966</v>
       </c>
       <c r="L289" s="0" t="n">
-        <v>0.0567</v>
+        <v>0.0604</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11560,7 +11560,7 @@
         <v>0.22</v>
       </c>
       <c r="J300" s="0" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="K300" s="0" t="n">
         <v>0.044</v>
@@ -11598,7 +11598,7 @@
         <v>0.36</v>
       </c>
       <c r="J301" s="0" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="K301" s="0" t="n">
         <v>0.068</v>
@@ -11674,7 +11674,7 @@
         <v>0.3333</v>
       </c>
       <c r="J303" s="0" t="n">
-        <v>0.4545</v>
+        <v>0.4242</v>
       </c>
       <c r="K303" s="0" t="n">
         <v>0.6667</v>
@@ -11712,7 +11712,7 @@
         <v>0.4</v>
       </c>
       <c r="J304" s="0" t="n">
-        <v>0.5778</v>
+        <v>0.5556</v>
       </c>
       <c r="K304" s="0" t="n">
         <v>0.7556</v>
@@ -11788,7 +11788,7 @@
         <v>0.265</v>
       </c>
       <c r="J306" s="0" t="n">
-        <v>0.2256</v>
+        <v>0.2105</v>
       </c>
       <c r="K306" s="0" t="n">
         <v>0.0826</v>
@@ -11826,7 +11826,7 @@
         <v>0.3789</v>
       </c>
       <c r="J307" s="0" t="n">
-        <v>0.3586</v>
+        <v>0.3448</v>
       </c>
       <c r="K307" s="0" t="n">
         <v>0.1248</v>
@@ -13890,7 +13890,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -13905,18 +13905,18 @@
   </sheetPr>
   <dimension ref="A1:L121"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G109" activeCellId="0" sqref="G109"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A75" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A92" activeCellId="0" sqref="A92:L121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="5" style="0" width="17.38"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.9132653061224"/>
+    <col collapsed="false" hidden="false" max="12" min="5" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17400,19 +17400,19 @@
         <v>0.136340852130326</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>0.245100725080853</v>
+        <v>0.244480969169335</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>0.301090341968094</v>
+        <v>0.300470586056577</v>
       </c>
       <c r="J92" s="0" t="n">
-        <v>0.331839109311289</v>
+        <v>0.331589886276445</v>
       </c>
       <c r="K92" s="0" t="n">
-        <v>0.354257423356105</v>
+        <v>0.354087868202131</v>
       </c>
       <c r="L92" s="0" t="n">
-        <v>0.357003192746135</v>
+        <v>0.356872401952512</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17441,16 +17441,16 @@
         <v>0.0382205513784461</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>0.0617603035366193</v>
+        <v>0.0612225607121251</v>
       </c>
       <c r="J93" s="0" t="n">
-        <v>0.0746131680477391</v>
+        <v>0.0741555341714144</v>
       </c>
       <c r="K93" s="0" t="n">
-        <v>0.0897379906517296</v>
+        <v>0.0894550763211093</v>
       </c>
       <c r="L93" s="0" t="n">
-        <v>0.0897379906517296</v>
+        <v>0.0894550763211093</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17476,19 +17476,19 @@
         <v>0.138401559454191</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>0.239505864840081</v>
+        <v>0.238997347169092</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>0.319503300349933</v>
+        <v>0.318232980344244</v>
       </c>
       <c r="J94" s="0" t="n">
-        <v>0.362668567002978</v>
+        <v>0.3618282320072</v>
       </c>
       <c r="K94" s="0" t="n">
-        <v>0.400276298984656</v>
+        <v>0.399697174491885</v>
       </c>
       <c r="L94" s="0" t="n">
-        <v>0.402888704314921</v>
+        <v>0.402346484611759</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17514,19 +17514,19 @@
         <v>0.127777777777778</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>0.16030525030525</v>
+        <v>0.158063492063492</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>0.16030525030525</v>
+        <v>0.158063492063492</v>
       </c>
       <c r="J95" s="0" t="n">
-        <v>0.179027846753505</v>
+        <v>0.177044739671605</v>
       </c>
       <c r="K95" s="0" t="n">
-        <v>0.193175195731609</v>
+        <v>0.19387020271955</v>
       </c>
       <c r="L95" s="0" t="n">
-        <v>0.194309053999326</v>
+        <v>0.196431740496537</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17552,19 +17552,19 @@
         <v>0.00367647058823529</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>0.00677244582043344</v>
+        <v>0.00661764705882353</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>0.00981504216931782</v>
+        <v>0.00966024340770791</v>
       </c>
       <c r="J96" s="0" t="n">
-        <v>0.0162331868227566</v>
+        <v>0.0161283085808475</v>
       </c>
       <c r="K96" s="0" t="n">
-        <v>0.0196583727067041</v>
+        <v>0.0196052378862763</v>
       </c>
       <c r="L96" s="0" t="n">
-        <v>0.0206731765339942</v>
+        <v>0.0209789985071025</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17590,19 +17590,19 @@
         <v>0.0645009416195857</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>0.0879346889605587</v>
+        <v>0.0864541296744687</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>0.0931947707840538</v>
+        <v>0.0917142114979637</v>
       </c>
       <c r="J97" s="0" t="n">
-        <v>0.114890882269676</v>
+        <v>0.113651665013321</v>
       </c>
       <c r="K97" s="0" t="n">
-        <v>0.129378849352117</v>
+        <v>0.129958226604393</v>
       </c>
       <c r="L97" s="0" t="n">
-        <v>0.131629700487833</v>
+        <v>0.13369314991384</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17628,19 +17628,19 @@
         <v>0.05</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>0.211675407925408</v>
+        <v>0.216154507257448</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>0.211675407925408</v>
+        <v>0.216154507257448</v>
       </c>
       <c r="J98" s="0" t="n">
-        <v>0.211675407925408</v>
+        <v>0.216154507257448</v>
       </c>
       <c r="K98" s="0" t="n">
-        <v>0.223430710089119</v>
+        <v>0.228018421374847</v>
       </c>
       <c r="L98" s="0" t="n">
-        <v>0.223430710089119</v>
+        <v>0.228018421374847</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17666,19 +17666,19 @@
         <v>0.0150793650793651</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>0.0342120181405896</v>
+        <v>0.0349969474969475</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>0.0383648420608554</v>
+        <v>0.0391497714172133</v>
       </c>
       <c r="J99" s="0" t="n">
-        <v>0.0536945985306523</v>
+        <v>0.0541513889473422</v>
       </c>
       <c r="K99" s="0" t="n">
-        <v>0.0774792552444161</v>
+        <v>0.0776025914782309</v>
       </c>
       <c r="L99" s="0" t="n">
-        <v>0.0815448065614353</v>
+        <v>0.081688159825107</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17704,19 +17704,19 @@
         <v>0.0324561403508772</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>0.133813080194659</v>
+        <v>0.136396130958824</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>0.141157021443129</v>
+        <v>0.143740072207294</v>
       </c>
       <c r="J100" s="0" t="n">
-        <v>0.163357491006698</v>
+        <v>0.165479533542068</v>
       </c>
       <c r="K100" s="0" t="n">
-        <v>0.199309964305454</v>
+        <v>0.201122078318033</v>
       </c>
       <c r="L100" s="0" t="n">
-        <v>0.203859164745522</v>
+        <v>0.20569622870078</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17742,19 +17742,19 @@
         <v>0</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>0.0370629370629371</v>
+        <v>0.0381313131313131</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>0.0855494634564402</v>
+        <v>0.0859511008704557</v>
       </c>
       <c r="J101" s="0" t="n">
-        <v>0.125363451240604</v>
+        <v>0.126473236911881</v>
       </c>
       <c r="K101" s="0" t="n">
-        <v>0.133766812585142</v>
+        <v>0.135168889085794</v>
       </c>
       <c r="L101" s="0" t="n">
-        <v>0.133766812585142</v>
+        <v>0.135168889085794</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17780,19 +17780,19 @@
         <v>0.0934343434343434</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>0.113352191996693</v>
+        <v>0.111363636363636</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>0.140877111814103</v>
+        <v>0.138816639401009</v>
       </c>
       <c r="J102" s="0" t="n">
-        <v>0.16179154386946</v>
+        <v>0.154550474425309</v>
       </c>
       <c r="K102" s="0" t="n">
-        <v>0.186668996367855</v>
+        <v>0.183744119605302</v>
       </c>
       <c r="L102" s="0" t="n">
-        <v>0.187607044412229</v>
+        <v>0.184677144634712</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17818,19 +17818,19 @@
         <v>0.0685185185185185</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>0.12588393608854</v>
+        <v>0.124713804713805</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>0.190697727946484</v>
+        <v>0.189027082257193</v>
       </c>
       <c r="J103" s="0" t="n">
-        <v>0.241383781796318</v>
+        <v>0.233592221786254</v>
       </c>
       <c r="K103" s="0" t="n">
-        <v>0.276614474418711</v>
+        <v>0.274503488122754</v>
       </c>
       <c r="L103" s="0" t="n">
-        <v>0.277661281656636</v>
+        <v>0.275544689967169</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17862,13 +17862,13 @@
         <v>0.149162210338681</v>
       </c>
       <c r="J104" s="0" t="n">
-        <v>0.162211855728752</v>
+        <v>0.161991157707102</v>
       </c>
       <c r="K104" s="0" t="n">
-        <v>0.162211855728752</v>
+        <v>0.161991157707102</v>
       </c>
       <c r="L104" s="0" t="n">
-        <v>0.162211855728752</v>
+        <v>0.161991157707102</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17897,16 +17897,16 @@
         <v>0.108709273182957</v>
       </c>
       <c r="I105" s="0" t="n">
-        <v>0.116228070175439</v>
+        <v>0.11588630667578</v>
       </c>
       <c r="J105" s="0" t="n">
-        <v>0.116228070175439</v>
+        <v>0.11588630667578</v>
       </c>
       <c r="K105" s="0" t="n">
-        <v>0.122272452745771</v>
+        <v>0.1219412441711</v>
       </c>
       <c r="L105" s="0" t="n">
-        <v>0.123099993295258</v>
+        <v>0.122768784720587</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17935,16 +17935,16 @@
         <v>0.18764082435482</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>0.195851004978794</v>
+        <v>0.195477814950432</v>
       </c>
       <c r="J106" s="0" t="n">
-        <v>0.205310530535165</v>
+        <v>0.204779085367854</v>
       </c>
       <c r="K106" s="0" t="n">
-        <v>0.21229222699143</v>
+        <v>0.211777883627187</v>
       </c>
       <c r="L106" s="0" t="n">
-        <v>0.213159717774341</v>
+        <v>0.212645374410098</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17967,22 +17967,22 @@
         <v>0.185714285714286</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>0.27797619047619</v>
+        <v>0.284353741496599</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>0.298384353741497</v>
+        <v>0.304761904761905</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>0.3485520431949</v>
+        <v>0.356460206460206</v>
       </c>
       <c r="J107" s="0" t="n">
-        <v>0.362029132143687</v>
+        <v>0.369937295408993</v>
       </c>
       <c r="K107" s="0" t="n">
-        <v>0.369894924973681</v>
+        <v>0.377774207951788</v>
       </c>
       <c r="L107" s="0" t="n">
-        <v>0.369894924973681</v>
+        <v>0.377774207951788</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18008,19 +18008,19 @@
         <v>0</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>0.0334623323013416</v>
+        <v>0.0323271413828689</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>0.0443555784887054</v>
+        <v>0.0432203875702328</v>
       </c>
       <c r="J108" s="0" t="n">
-        <v>0.0443555784887054</v>
+        <v>0.0432203875702328</v>
       </c>
       <c r="K108" s="0" t="n">
-        <v>0.0510332058399545</v>
+        <v>0.0500299485339592</v>
       </c>
       <c r="L108" s="0" t="n">
-        <v>0.0510332058399545</v>
+        <v>0.0500299485339592</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18043,22 +18043,22 @@
         <v>0.0838709677419355</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>0.125537634408602</v>
+        <v>0.128417818740399</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>0.197531799929932</v>
+        <v>0.198893402861994</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>0.247761856611602</v>
+        <v>0.250246731433064</v>
       </c>
       <c r="J109" s="0" t="n">
-        <v>0.256891497512393</v>
+        <v>0.259376372333855</v>
       </c>
       <c r="K109" s="0" t="n">
-        <v>0.271852661726433</v>
+        <v>0.274512930547987</v>
       </c>
       <c r="L109" s="0" t="n">
-        <v>0.271852661726433</v>
+        <v>0.274512930547987</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18087,16 +18087,16 @@
         <v>0.25</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>0.272222222222222</v>
+        <v>0.273076923076923</v>
       </c>
       <c r="J110" s="0" t="n">
-        <v>0.272222222222222</v>
+        <v>0.273076923076923</v>
       </c>
       <c r="K110" s="0" t="n">
-        <v>0.282986329297753</v>
+        <v>0.283876580230664</v>
       </c>
       <c r="L110" s="0" t="n">
-        <v>0.282986329297753</v>
+        <v>0.283876580230664</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18122,19 +18122,19 @@
         <v>0.129166666666667</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>0.158333333333333</v>
+        <v>0.157833333333333</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>0.158333333333333</v>
+        <v>0.157833333333333</v>
       </c>
       <c r="J111" s="0" t="n">
-        <v>0.158333333333333</v>
+        <v>0.157833333333333</v>
       </c>
       <c r="K111" s="0" t="n">
-        <v>0.163238091575655</v>
+        <v>0.16286302997076</v>
       </c>
       <c r="L111" s="0" t="n">
-        <v>0.164735264702533</v>
+        <v>0.164383348511692</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18160,19 +18160,19 @@
         <v>0.223333333333333</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>0.255333333333333</v>
+        <v>0.2548</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>0.268666666666667</v>
+        <v>0.268646153846154</v>
       </c>
       <c r="J112" s="0" t="n">
-        <v>0.268666666666667</v>
+        <v>0.268646153846154</v>
       </c>
       <c r="K112" s="0" t="n">
-        <v>0.280179324628479</v>
+        <v>0.280332406925746</v>
       </c>
       <c r="L112" s="0" t="n">
-        <v>0.281948346173837</v>
+        <v>0.282129011397086</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18207,10 +18207,10 @@
         <v>0</v>
       </c>
       <c r="K113" s="0" t="n">
-        <v>0.00134981013659617</v>
+        <v>0.00135644963472511</v>
       </c>
       <c r="L113" s="0" t="n">
-        <v>0.00134981013659617</v>
+        <v>0.00135644963472511</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18283,10 +18283,10 @@
         <v>0.00166666666666667</v>
       </c>
       <c r="K115" s="0" t="n">
-        <v>0.00202793453228557</v>
+        <v>0.0020298085639631</v>
       </c>
       <c r="L115" s="0" t="n">
-        <v>0.00202793453228557</v>
+        <v>0.0020298085639631</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18321,10 +18321,10 @@
         <v>0</v>
       </c>
       <c r="K116" s="0" t="n">
-        <v>0.000618429189857761</v>
+        <v>0.000580720092915215</v>
       </c>
       <c r="L116" s="0" t="n">
-        <v>0.000941635395416908</v>
+        <v>0.000903561093722318</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18353,16 +18353,16 @@
         <v>0.127799736495389</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>0.131510311634535</v>
+        <v>0.131436100131752</v>
       </c>
       <c r="J117" s="0" t="n">
-        <v>0.142499757918099</v>
+        <v>0.142394605158602</v>
       </c>
       <c r="K117" s="0" t="n">
-        <v>0.148767175386014</v>
+        <v>0.148863336037567</v>
       </c>
       <c r="L117" s="0" t="n">
-        <v>0.151442687976846</v>
+        <v>0.151501617184795</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18391,16 +18391,16 @@
         <v>0.105434782608696</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>0.108496007098492</v>
+        <v>0.108434782608696</v>
       </c>
       <c r="J118" s="0" t="n">
-        <v>0.117562300282432</v>
+        <v>0.117475549255847</v>
       </c>
       <c r="K118" s="0" t="n">
-        <v>0.124139846100388</v>
+        <v>0.124133390442375</v>
       </c>
       <c r="L118" s="0" t="n">
-        <v>0.127010656141706</v>
+        <v>0.126970784901856</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18520,7 +18520,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/all_results.xlsx
+++ b/all_results.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="13">
   <si>
     <t xml:space="preserve">Query</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t xml:space="preserve">BM25 :K1 = 1.2 B = 0.75 EPS = 0.01 |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM25_extended :K1 = 1.2 B = 0.75 EPS = 0.01 |</t>
   </si>
   <si>
     <t xml:space="preserve">AP</t>
@@ -153,21 +156,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L361"/>
+  <dimension ref="A1:L451"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A323" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A272" activeCellId="0" sqref="A272"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A329" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A362" activeCellId="0" sqref="A362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.72448979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3724489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1428571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.11734693877551"/>
-    <col collapsed="false" hidden="false" max="12" min="6" style="0" width="7.49489795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="12" min="6" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13885,6 +13888,3426 @@
         <v>0.0656</v>
       </c>
       <c r="L361" s="0" t="n">
+        <v>0.0354</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B362" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C362" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D362" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E362" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F362" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G362" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H362" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I362" s="0" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="J362" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K362" s="0" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="L362" s="0" t="n">
+        <v>0.031</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B363" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C363" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D363" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E363" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F363" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G363" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H363" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I363" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J363" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="K363" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L363" s="0" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B364" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C364" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D364" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E364" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F364" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G364" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H364" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I364" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="J364" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="K364" s="0" t="n">
+        <v>0.086</v>
+      </c>
+      <c r="L364" s="0" t="n">
+        <v>0.046</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B365" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C365" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D365" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E365" s="0" t="n">
+        <v>0.0263</v>
+      </c>
+      <c r="F365" s="0" t="n">
+        <v>0.1053</v>
+      </c>
+      <c r="G365" s="0" t="n">
+        <v>0.2105</v>
+      </c>
+      <c r="H365" s="0" t="n">
+        <v>0.3947</v>
+      </c>
+      <c r="I365" s="0" t="n">
+        <v>0.6316</v>
+      </c>
+      <c r="J365" s="0" t="n">
+        <v>0.6579</v>
+      </c>
+      <c r="K365" s="0" t="n">
+        <v>0.7368</v>
+      </c>
+      <c r="L365" s="0" t="n">
+        <v>0.8158</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B366" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C366" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D366" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E366" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F366" s="0" t="n">
+        <v>0.0526</v>
+      </c>
+      <c r="G366" s="0" t="n">
+        <v>0.1053</v>
+      </c>
+      <c r="H366" s="0" t="n">
+        <v>0.3158</v>
+      </c>
+      <c r="I366" s="0" t="n">
+        <v>0.5263</v>
+      </c>
+      <c r="J366" s="0" t="n">
+        <v>0.6316</v>
+      </c>
+      <c r="K366" s="0" t="n">
+        <v>0.7895</v>
+      </c>
+      <c r="L366" s="0" t="n">
+        <v>0.7895</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B367" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C367" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D367" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E367" s="0" t="n">
+        <v>0.0175</v>
+      </c>
+      <c r="F367" s="0" t="n">
+        <v>0.0877</v>
+      </c>
+      <c r="G367" s="0" t="n">
+        <v>0.1754</v>
+      </c>
+      <c r="H367" s="0" t="n">
+        <v>0.3684</v>
+      </c>
+      <c r="I367" s="0" t="n">
+        <v>0.5965</v>
+      </c>
+      <c r="J367" s="0" t="n">
+        <v>0.6491</v>
+      </c>
+      <c r="K367" s="0" t="n">
+        <v>0.7544</v>
+      </c>
+      <c r="L367" s="0" t="n">
+        <v>0.807</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B368" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C368" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D368" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E368" s="0" t="n">
+        <v>0.0513</v>
+      </c>
+      <c r="F368" s="0" t="n">
+        <v>0.1861</v>
+      </c>
+      <c r="G368" s="0" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="H368" s="0" t="n">
+        <v>0.4762</v>
+      </c>
+      <c r="I368" s="0" t="n">
+        <v>0.5455</v>
+      </c>
+      <c r="J368" s="0" t="n">
+        <v>0.3623</v>
+      </c>
+      <c r="K368" s="0" t="n">
+        <v>0.1041</v>
+      </c>
+      <c r="L368" s="0" t="n">
+        <v>0.0597</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B369" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C369" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D369" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E369" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F369" s="0" t="n">
+        <v>0.0833</v>
+      </c>
+      <c r="G369" s="0" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="H369" s="0" t="n">
+        <v>0.2727</v>
+      </c>
+      <c r="I369" s="0" t="n">
+        <v>0.2899</v>
+      </c>
+      <c r="J369" s="0" t="n">
+        <v>0.2017</v>
+      </c>
+      <c r="K369" s="0" t="n">
+        <v>0.0578</v>
+      </c>
+      <c r="L369" s="0" t="n">
+        <v>0.0294</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B370" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C370" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D370" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E370" s="0" t="n">
+        <v>0.0344</v>
+      </c>
+      <c r="F370" s="0" t="n">
+        <v>0.1613</v>
+      </c>
+      <c r="G370" s="0" t="n">
+        <v>0.2985</v>
+      </c>
+      <c r="H370" s="0" t="n">
+        <v>0.5122</v>
+      </c>
+      <c r="I370" s="0" t="n">
+        <v>0.6355</v>
+      </c>
+      <c r="J370" s="0" t="n">
+        <v>0.4713</v>
+      </c>
+      <c r="K370" s="0" t="n">
+        <v>0.1544</v>
+      </c>
+      <c r="L370" s="0" t="n">
+        <v>0.087</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B371" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C371" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D371" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E371" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F371" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G371" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H371" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I371" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="J371" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="K371" s="0" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="L371" s="0" t="n">
+        <v>0.024</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B372" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C372" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D372" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E372" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F372" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G372" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H372" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I372" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="J372" s="0" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="K372" s="0" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="L372" s="0" t="n">
+        <v>0.022</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B373" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C373" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D373" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E373" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F373" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G373" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H373" s="0" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="I373" s="0" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="J373" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K373" s="0" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L373" s="0" t="n">
+        <v>0.046</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B374" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C374" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D374" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E374" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F374" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G374" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H374" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I374" s="0" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="J374" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="K374" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="L374" s="0" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B375" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C375" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D375" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E375" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F375" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G375" s="0" t="n">
+        <v>0.0588</v>
+      </c>
+      <c r="H375" s="0" t="n">
+        <v>0.1471</v>
+      </c>
+      <c r="I375" s="0" t="n">
+        <v>0.3824</v>
+      </c>
+      <c r="J375" s="0" t="n">
+        <v>0.3824</v>
+      </c>
+      <c r="K375" s="0" t="n">
+        <v>0.6176</v>
+      </c>
+      <c r="L375" s="0" t="n">
+        <v>0.6471</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B376" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C376" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D376" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E376" s="0" t="n">
+        <v>0.0169</v>
+      </c>
+      <c r="F376" s="0" t="n">
+        <v>0.0678</v>
+      </c>
+      <c r="G376" s="0" t="n">
+        <v>0.1017</v>
+      </c>
+      <c r="H376" s="0" t="n">
+        <v>0.2373</v>
+      </c>
+      <c r="I376" s="0" t="n">
+        <v>0.4576</v>
+      </c>
+      <c r="J376" s="0" t="n">
+        <v>0.5085</v>
+      </c>
+      <c r="K376" s="0" t="n">
+        <v>0.7627</v>
+      </c>
+      <c r="L376" s="0" t="n">
+        <v>0.7797</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B377" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C377" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D377" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E377" s="0" t="n">
+        <v>0.0769</v>
+      </c>
+      <c r="F377" s="0" t="n">
+        <v>0.2667</v>
+      </c>
+      <c r="G377" s="0" t="n">
+        <v>0.2286</v>
+      </c>
+      <c r="H377" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I377" s="0" t="n">
+        <v>0.3733</v>
+      </c>
+      <c r="J377" s="0" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="K377" s="0" t="n">
+        <v>0.0914</v>
+      </c>
+      <c r="L377" s="0" t="n">
+        <v>0.0468</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B378" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C378" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D378" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E378" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F378" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G378" s="0" t="n">
+        <v>0.0909</v>
+      </c>
+      <c r="H378" s="0" t="n">
+        <v>0.1695</v>
+      </c>
+      <c r="I378" s="0" t="n">
+        <v>0.3095</v>
+      </c>
+      <c r="J378" s="0" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="K378" s="0" t="n">
+        <v>0.0787</v>
+      </c>
+      <c r="L378" s="0" t="n">
+        <v>0.0426</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B379" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C379" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D379" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E379" s="0" t="n">
+        <v>0.0332</v>
+      </c>
+      <c r="F379" s="0" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G379" s="0" t="n">
+        <v>0.1739</v>
+      </c>
+      <c r="H379" s="0" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="I379" s="0" t="n">
+        <v>0.4954</v>
+      </c>
+      <c r="J379" s="0" t="n">
+        <v>0.3774</v>
+      </c>
+      <c r="K379" s="0" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="L379" s="0" t="n">
+        <v>0.0869</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B380" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C380" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D380" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E380" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F380" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G380" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H380" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I380" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J380" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K380" s="0" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="L380" s="0" t="n">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B381" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C381" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D381" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E381" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F381" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G381" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H381" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I381" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="J381" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K381" s="0" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="L381" s="0" t="n">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B382" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C382" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D382" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E382" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F382" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G382" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H382" s="0" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I382" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="J382" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K382" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L382" s="0" t="n">
+        <v>0.029</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B383" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C383" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D383" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E383" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F383" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G383" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H383" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I383" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J383" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K383" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L383" s="0" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B384" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C384" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D384" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E384" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F384" s="0" t="n">
+        <v>0.0714</v>
+      </c>
+      <c r="G384" s="0" t="n">
+        <v>0.1429</v>
+      </c>
+      <c r="H384" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I384" s="0" t="n">
+        <v>0.3929</v>
+      </c>
+      <c r="J384" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K384" s="0" t="n">
+        <v>0.6071</v>
+      </c>
+      <c r="L384" s="0" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B385" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C385" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D385" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E385" s="0" t="n">
+        <v>0.0263</v>
+      </c>
+      <c r="F385" s="0" t="n">
+        <v>0.1316</v>
+      </c>
+      <c r="G385" s="0" t="n">
+        <v>0.2105</v>
+      </c>
+      <c r="H385" s="0" t="n">
+        <v>0.2895</v>
+      </c>
+      <c r="I385" s="0" t="n">
+        <v>0.4474</v>
+      </c>
+      <c r="J385" s="0" t="n">
+        <v>0.5263</v>
+      </c>
+      <c r="K385" s="0" t="n">
+        <v>0.6579</v>
+      </c>
+      <c r="L385" s="0" t="n">
+        <v>0.7632</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B386" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C386" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D386" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E386" s="0" t="n">
+        <v>0.1818</v>
+      </c>
+      <c r="F386" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G386" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H386" s="0" t="n">
+        <v>0.2286</v>
+      </c>
+      <c r="I386" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J386" s="0" t="n">
+        <v>0.1091</v>
+      </c>
+      <c r="K386" s="0" t="n">
+        <v>0.0314</v>
+      </c>
+      <c r="L386" s="0" t="n">
+        <v>0.0158</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B387" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C387" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D387" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E387" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F387" s="0" t="n">
+        <v>0.1212</v>
+      </c>
+      <c r="G387" s="0" t="n">
+        <v>0.2106</v>
+      </c>
+      <c r="H387" s="0" t="n">
+        <v>0.2642</v>
+      </c>
+      <c r="I387" s="0" t="n">
+        <v>0.2821</v>
+      </c>
+      <c r="J387" s="0" t="n">
+        <v>0.2188</v>
+      </c>
+      <c r="K387" s="0" t="n">
+        <v>0.0644</v>
+      </c>
+      <c r="L387" s="0" t="n">
+        <v>0.0409</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B388" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C388" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D388" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E388" s="0" t="n">
+        <v>0.0513</v>
+      </c>
+      <c r="F388" s="0" t="n">
+        <v>0.2326</v>
+      </c>
+      <c r="G388" s="0" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="H388" s="0" t="n">
+        <v>0.3492</v>
+      </c>
+      <c r="I388" s="0" t="n">
+        <v>0.3864</v>
+      </c>
+      <c r="J388" s="0" t="n">
+        <v>0.2899</v>
+      </c>
+      <c r="K388" s="0" t="n">
+        <v>0.0929</v>
+      </c>
+      <c r="L388" s="0" t="n">
+        <v>0.0559</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B389" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C389" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D389" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E389" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F389" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G389" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H389" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I389" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J389" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K389" s="0" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="L389" s="0" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B390" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C390" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D390" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E390" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F390" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G390" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H390" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I390" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="J390" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K390" s="0" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="L390" s="0" t="n">
+        <v>0.024</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B391" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C391" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D391" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E391" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F391" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G391" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H391" s="0" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="I391" s="0" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="J391" s="0" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="K391" s="0" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="L391" s="0" t="n">
+        <v>0.036</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B392" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C392" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D392" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E392" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F392" s="0" t="n">
+        <v>0.1667</v>
+      </c>
+      <c r="G392" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H392" s="0" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="I392" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J392" s="0" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="K392" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L392" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B393" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C393" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D393" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E393" s="0" t="n">
+        <v>0.0303</v>
+      </c>
+      <c r="F393" s="0" t="n">
+        <v>0.0909</v>
+      </c>
+      <c r="G393" s="0" t="n">
+        <v>0.1515</v>
+      </c>
+      <c r="H393" s="0" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="I393" s="0" t="n">
+        <v>0.3939</v>
+      </c>
+      <c r="J393" s="0" t="n">
+        <v>0.4545</v>
+      </c>
+      <c r="K393" s="0" t="n">
+        <v>0.5152</v>
+      </c>
+      <c r="L393" s="0" t="n">
+        <v>0.7273</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B394" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C394" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D394" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E394" s="0" t="n">
+        <v>0.0222</v>
+      </c>
+      <c r="F394" s="0" t="n">
+        <v>0.1111</v>
+      </c>
+      <c r="G394" s="0" t="n">
+        <v>0.1778</v>
+      </c>
+      <c r="H394" s="0" t="n">
+        <v>0.3111</v>
+      </c>
+      <c r="I394" s="0" t="n">
+        <v>0.4222</v>
+      </c>
+      <c r="J394" s="0" t="n">
+        <v>0.5111</v>
+      </c>
+      <c r="K394" s="0" t="n">
+        <v>0.6444</v>
+      </c>
+      <c r="L394" s="0" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B395" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C395" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D395" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E395" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F395" s="0" t="n">
+        <v>0.2353</v>
+      </c>
+      <c r="G395" s="0" t="n">
+        <v>0.2727</v>
+      </c>
+      <c r="H395" s="0" t="n">
+        <v>0.2162</v>
+      </c>
+      <c r="I395" s="0" t="n">
+        <v>0.1935</v>
+      </c>
+      <c r="J395" s="0" t="n">
+        <v>0.1429</v>
+      </c>
+      <c r="K395" s="0" t="n">
+        <v>0.0469</v>
+      </c>
+      <c r="L395" s="0" t="n">
+        <v>0.0237</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B396" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C396" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D396" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E396" s="0" t="n">
+        <v>0.0588</v>
+      </c>
+      <c r="F396" s="0" t="n">
+        <v>0.1579</v>
+      </c>
+      <c r="G396" s="0" t="n">
+        <v>0.2325</v>
+      </c>
+      <c r="H396" s="0" t="n">
+        <v>0.3448</v>
+      </c>
+      <c r="I396" s="0" t="n">
+        <v>0.3132</v>
+      </c>
+      <c r="J396" s="0" t="n">
+        <v>0.2256</v>
+      </c>
+      <c r="K396" s="0" t="n">
+        <v>0.0638</v>
+      </c>
+      <c r="L396" s="0" t="n">
+        <v>0.0465</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B397" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C397" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D397" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E397" s="0" t="n">
+        <v>0.0434</v>
+      </c>
+      <c r="F397" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G397" s="0" t="n">
+        <v>0.2909</v>
+      </c>
+      <c r="H397" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I397" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J397" s="0" t="n">
+        <v>0.3172</v>
+      </c>
+      <c r="K397" s="0" t="n">
+        <v>0.1064</v>
+      </c>
+      <c r="L397" s="0" t="n">
+        <v>0.0689</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B398" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C398" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D398" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E398" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F398" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G398" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H398" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I398" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J398" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K398" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L398" s="0" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B399" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C399" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D399" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E399" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F399" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G399" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H399" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I399" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J399" s="0" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="K399" s="0" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="L399" s="0" t="n">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B400" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C400" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D400" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E400" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F400" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G400" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H400" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I400" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J400" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="K400" s="0" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="L400" s="0" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B401" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C401" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D401" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E401" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F401" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G401" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H401" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I401" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J401" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K401" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L401" s="0" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B402" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C402" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D402" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E402" s="0" t="n">
+        <v>0.0526</v>
+      </c>
+      <c r="F402" s="0" t="n">
+        <v>0.2105</v>
+      </c>
+      <c r="G402" s="0" t="n">
+        <v>0.2105</v>
+      </c>
+      <c r="H402" s="0" t="n">
+        <v>0.2105</v>
+      </c>
+      <c r="I402" s="0" t="n">
+        <v>0.3158</v>
+      </c>
+      <c r="J402" s="0" t="n">
+        <v>0.3684</v>
+      </c>
+      <c r="K402" s="0" t="n">
+        <v>0.4211</v>
+      </c>
+      <c r="L402" s="0" t="n">
+        <v>0.4211</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B403" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C403" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D403" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E403" s="0" t="n">
+        <v>0.0345</v>
+      </c>
+      <c r="F403" s="0" t="n">
+        <v>0.1379</v>
+      </c>
+      <c r="G403" s="0" t="n">
+        <v>0.1724</v>
+      </c>
+      <c r="H403" s="0" t="n">
+        <v>0.2069</v>
+      </c>
+      <c r="I403" s="0" t="n">
+        <v>0.3103</v>
+      </c>
+      <c r="J403" s="0" t="n">
+        <v>0.4138</v>
+      </c>
+      <c r="K403" s="0" t="n">
+        <v>0.4483</v>
+      </c>
+      <c r="L403" s="0" t="n">
+        <v>0.4828</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B404" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C404" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D404" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E404" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F404" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G404" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H404" s="0" t="n">
+        <v>0.1143</v>
+      </c>
+      <c r="I404" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J404" s="0" t="n">
+        <v>0.0909</v>
+      </c>
+      <c r="K404" s="0" t="n">
+        <v>0.0196</v>
+      </c>
+      <c r="L404" s="0" t="n">
+        <v>0.0119</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B405" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C405" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D405" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E405" s="0" t="n">
+        <v>0.0999</v>
+      </c>
+      <c r="F405" s="0" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="G405" s="0" t="n">
+        <v>0.2758</v>
+      </c>
+      <c r="H405" s="0" t="n">
+        <v>0.1818</v>
+      </c>
+      <c r="I405" s="0" t="n">
+        <v>0.1739</v>
+      </c>
+      <c r="J405" s="0" t="n">
+        <v>0.1176</v>
+      </c>
+      <c r="K405" s="0" t="n">
+        <v>0.0308</v>
+      </c>
+      <c r="L405" s="0" t="n">
+        <v>0.0157</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B406" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C406" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D406" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E406" s="0" t="n">
+        <v>0.0667</v>
+      </c>
+      <c r="F406" s="0" t="n">
+        <v>0.2352</v>
+      </c>
+      <c r="G406" s="0" t="n">
+        <v>0.2564</v>
+      </c>
+      <c r="H406" s="0" t="n">
+        <v>0.2222</v>
+      </c>
+      <c r="I406" s="0" t="n">
+        <v>0.2278</v>
+      </c>
+      <c r="J406" s="0" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="K406" s="0" t="n">
+        <v>0.0491</v>
+      </c>
+      <c r="L406" s="0" t="n">
+        <v>0.0272</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B407" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C407" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D407" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E407" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F407" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G407" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H407" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I407" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J407" s="0" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="K407" s="0" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="L407" s="0" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B408" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C408" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D408" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E408" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F408" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G408" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H408" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I408" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J408" s="0" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="K408" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L408" s="0" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B409" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C409" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D409" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E409" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F409" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G409" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H409" s="0" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I409" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="J409" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="K409" s="0" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="L409" s="0" t="n">
+        <v>0.026</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B410" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C410" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D410" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E410" s="0" t="n">
+        <v>0.0714</v>
+      </c>
+      <c r="F410" s="0" t="n">
+        <v>0.0714</v>
+      </c>
+      <c r="G410" s="0" t="n">
+        <v>0.2143</v>
+      </c>
+      <c r="H410" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I410" s="0" t="n">
+        <v>0.6429</v>
+      </c>
+      <c r="J410" s="0" t="n">
+        <v>0.6429</v>
+      </c>
+      <c r="K410" s="0" t="n">
+        <v>0.9286</v>
+      </c>
+      <c r="L410" s="0" t="n">
+        <v>0.9286</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B411" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C411" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D411" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E411" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F411" s="0" t="n">
+        <v>0.1176</v>
+      </c>
+      <c r="G411" s="0" t="n">
+        <v>0.1176</v>
+      </c>
+      <c r="H411" s="0" t="n">
+        <v>0.2353</v>
+      </c>
+      <c r="I411" s="0" t="n">
+        <v>0.2941</v>
+      </c>
+      <c r="J411" s="0" t="n">
+        <v>0.4118</v>
+      </c>
+      <c r="K411" s="0" t="n">
+        <v>0.5882</v>
+      </c>
+      <c r="L411" s="0" t="n">
+        <v>0.7647</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B412" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C412" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D412" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E412" s="0" t="n">
+        <v>0.0323</v>
+      </c>
+      <c r="F412" s="0" t="n">
+        <v>0.0968</v>
+      </c>
+      <c r="G412" s="0" t="n">
+        <v>0.1613</v>
+      </c>
+      <c r="H412" s="0" t="n">
+        <v>0.3548</v>
+      </c>
+      <c r="I412" s="0" t="n">
+        <v>0.4516</v>
+      </c>
+      <c r="J412" s="0" t="n">
+        <v>0.5161</v>
+      </c>
+      <c r="K412" s="0" t="n">
+        <v>0.7419</v>
+      </c>
+      <c r="L412" s="0" t="n">
+        <v>0.8387</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B413" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C413" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D413" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E413" s="0" t="n">
+        <v>0.1333</v>
+      </c>
+      <c r="F413" s="0" t="n">
+        <v>0.1052</v>
+      </c>
+      <c r="G413" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H413" s="0" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="I413" s="0" t="n">
+        <v>0.2813</v>
+      </c>
+      <c r="J413" s="0" t="n">
+        <v>0.1579</v>
+      </c>
+      <c r="K413" s="0" t="n">
+        <v>0.0506</v>
+      </c>
+      <c r="L413" s="0" t="n">
+        <v>0.0256</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B414" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C414" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D414" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E414" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F414" s="0" t="n">
+        <v>0.1818</v>
+      </c>
+      <c r="G414" s="0" t="n">
+        <v>0.1481</v>
+      </c>
+      <c r="H414" s="0" t="n">
+        <v>0.1905</v>
+      </c>
+      <c r="I414" s="0" t="n">
+        <v>0.1493</v>
+      </c>
+      <c r="J414" s="0" t="n">
+        <v>0.1197</v>
+      </c>
+      <c r="K414" s="0" t="n">
+        <v>0.0387</v>
+      </c>
+      <c r="L414" s="0" t="n">
+        <v>0.0256</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B415" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C415" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D415" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E415" s="0" t="n">
+        <v>0.0626</v>
+      </c>
+      <c r="F415" s="0" t="n">
+        <v>0.1667</v>
+      </c>
+      <c r="G415" s="0" t="n">
+        <v>0.2439</v>
+      </c>
+      <c r="H415" s="0" t="n">
+        <v>0.3928</v>
+      </c>
+      <c r="I415" s="0" t="n">
+        <v>0.3457</v>
+      </c>
+      <c r="J415" s="0" t="n">
+        <v>0.2443</v>
+      </c>
+      <c r="K415" s="0" t="n">
+        <v>0.0866</v>
+      </c>
+      <c r="L415" s="0" t="n">
+        <v>0.0504</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B416" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C416" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D416" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E416" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F416" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G416" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H416" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I416" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J416" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K416" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L416" s="0" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B417" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C417" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D417" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E417" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F417" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G417" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H417" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I417" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J417" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K417" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L417" s="0" t="n">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B418" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C418" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D418" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E418" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F418" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G418" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H418" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I418" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J418" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="K418" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L418" s="0" t="n">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B419" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C419" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D419" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E419" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F419" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G419" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H419" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I419" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J419" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K419" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L419" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B420" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C420" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D420" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E420" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F420" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G420" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H420" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I420" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J420" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K420" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L420" s="0" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B421" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C421" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D421" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E421" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F421" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G421" s="0" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H421" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I421" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="J421" s="0" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="K421" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L421" s="0" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B422" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C422" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D422" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E422" s="0" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="F422" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G422" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H422" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I422" s="0" t="n">
+        <v>0.1091</v>
+      </c>
+      <c r="J422" s="0" t="n">
+        <v>0.0571</v>
+      </c>
+      <c r="K422" s="0" t="n">
+        <v>0.0198</v>
+      </c>
+      <c r="L422" s="0" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B423" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C423" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D423" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E423" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F423" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G423" s="0" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="H423" s="0" t="n">
+        <v>0.2667</v>
+      </c>
+      <c r="I423" s="0" t="n">
+        <v>0.1714</v>
+      </c>
+      <c r="J423" s="0" t="n">
+        <v>0.1333</v>
+      </c>
+      <c r="K423" s="0" t="n">
+        <v>0.0385</v>
+      </c>
+      <c r="L423" s="0" t="n">
+        <v>0.0216</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B424" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C424" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D424" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E424" s="0" t="n">
+        <v>0.0769</v>
+      </c>
+      <c r="F424" s="0" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="G424" s="0" t="n">
+        <v>0.4571</v>
+      </c>
+      <c r="H424" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I424" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="J424" s="0" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="K424" s="0" t="n">
+        <v>0.0571</v>
+      </c>
+      <c r="L424" s="0" t="n">
+        <v>0.0312</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B425" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C425" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D425" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E425" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F425" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G425" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H425" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I425" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J425" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K425" s="0" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="L425" s="0" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B426" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C426" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D426" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E426" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F426" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G426" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H426" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I426" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J426" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K426" s="0" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="L426" s="0" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B427" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C427" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D427" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E427" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F427" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G427" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H427" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I427" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J427" s="0" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="K427" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L427" s="0" t="n">
+        <v>0.018</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B428" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C428" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D428" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E428" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F428" s="0" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G428" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H428" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I428" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J428" s="0" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="K428" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L428" s="0" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B429" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C429" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D429" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E429" s="0" t="n">
+        <v>0.0238</v>
+      </c>
+      <c r="F429" s="0" t="n">
+        <v>0.0238</v>
+      </c>
+      <c r="G429" s="0" t="n">
+        <v>0.0238</v>
+      </c>
+      <c r="H429" s="0" t="n">
+        <v>0.0714</v>
+      </c>
+      <c r="I429" s="0" t="n">
+        <v>0.1429</v>
+      </c>
+      <c r="J429" s="0" t="n">
+        <v>0.1429</v>
+      </c>
+      <c r="K429" s="0" t="n">
+        <v>0.2619</v>
+      </c>
+      <c r="L429" s="0" t="n">
+        <v>0.3095</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B430" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C430" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D430" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E430" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F430" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G430" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H430" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I430" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J430" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="K430" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L430" s="0" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B431" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C431" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D431" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E431" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F431" s="0" t="n">
+        <v>0.1538</v>
+      </c>
+      <c r="G431" s="0" t="n">
+        <v>0.2222</v>
+      </c>
+      <c r="H431" s="0" t="n">
+        <v>0.1212</v>
+      </c>
+      <c r="I431" s="0" t="n">
+        <v>0.069</v>
+      </c>
+      <c r="J431" s="0" t="n">
+        <v>0.0556</v>
+      </c>
+      <c r="K431" s="0" t="n">
+        <v>0.0157</v>
+      </c>
+      <c r="L431" s="0" t="n">
+        <v>0.0099</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B432" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C432" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D432" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E432" s="0" t="n">
+        <v>0.0465</v>
+      </c>
+      <c r="F432" s="0" t="n">
+        <v>0.0425</v>
+      </c>
+      <c r="G432" s="0" t="n">
+        <v>0.0384</v>
+      </c>
+      <c r="H432" s="0" t="n">
+        <v>0.0895</v>
+      </c>
+      <c r="I432" s="0" t="n">
+        <v>0.1305</v>
+      </c>
+      <c r="J432" s="0" t="n">
+        <v>0.0845</v>
+      </c>
+      <c r="K432" s="0" t="n">
+        <v>0.0406</v>
+      </c>
+      <c r="L432" s="0" t="n">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B433" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C433" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D433" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E433" s="0" t="n">
+        <v>0.0392</v>
+      </c>
+      <c r="F433" s="0" t="n">
+        <v>0.0727</v>
+      </c>
+      <c r="G433" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H433" s="0" t="n">
+        <v>0.1333</v>
+      </c>
+      <c r="I433" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J433" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="K433" s="0" t="n">
+        <v>0.0545</v>
+      </c>
+      <c r="L433" s="0" t="n">
+        <v>0.0343</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B434" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C434" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D434" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E434" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F434" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G434" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H434" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I434" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J434" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K434" s="0" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="L434" s="0" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B435" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C435" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D435" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E435" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F435" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G435" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H435" s="0" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I435" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="J435" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="K435" s="0" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="L435" s="0" t="n">
+        <v>0.019</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B436" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C436" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D436" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E436" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F436" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G436" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H436" s="0" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I436" s="0" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="J436" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="K436" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L436" s="0" t="n">
+        <v>0.026</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B437" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C437" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D437" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E437" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F437" s="0" t="n">
+        <v>0.2857</v>
+      </c>
+      <c r="G437" s="0" t="n">
+        <v>0.2857</v>
+      </c>
+      <c r="H437" s="0" t="n">
+        <v>0.4286</v>
+      </c>
+      <c r="I437" s="0" t="n">
+        <v>0.4286</v>
+      </c>
+      <c r="J437" s="0" t="n">
+        <v>0.7143</v>
+      </c>
+      <c r="K437" s="0" t="n">
+        <v>0.8571</v>
+      </c>
+      <c r="L437" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B438" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C438" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D438" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E438" s="0" t="n">
+        <v>0.0303</v>
+      </c>
+      <c r="F438" s="0" t="n">
+        <v>0.0909</v>
+      </c>
+      <c r="G438" s="0" t="n">
+        <v>0.1515</v>
+      </c>
+      <c r="H438" s="0" t="n">
+        <v>0.2424</v>
+      </c>
+      <c r="I438" s="0" t="n">
+        <v>0.3939</v>
+      </c>
+      <c r="J438" s="0" t="n">
+        <v>0.5152</v>
+      </c>
+      <c r="K438" s="0" t="n">
+        <v>0.5758</v>
+      </c>
+      <c r="L438" s="0" t="n">
+        <v>0.5758</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B439" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C439" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D439" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E439" s="0" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F439" s="0" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G439" s="0" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H439" s="0" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I439" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J439" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="K439" s="0" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="L439" s="0" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B440" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C440" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D440" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E440" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F440" s="0" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="G440" s="0" t="n">
+        <v>0.2353</v>
+      </c>
+      <c r="H440" s="0" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="I440" s="0" t="n">
+        <v>0.1053</v>
+      </c>
+      <c r="J440" s="0" t="n">
+        <v>0.0935</v>
+      </c>
+      <c r="K440" s="0" t="n">
+        <v>0.0237</v>
+      </c>
+      <c r="L440" s="0" t="n">
+        <v>0.0139</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B441" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C441" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D441" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E441" s="0" t="n">
+        <v>0.0588</v>
+      </c>
+      <c r="F441" s="0" t="n">
+        <v>0.1579</v>
+      </c>
+      <c r="G441" s="0" t="n">
+        <v>0.2325</v>
+      </c>
+      <c r="H441" s="0" t="n">
+        <v>0.2758</v>
+      </c>
+      <c r="I441" s="0" t="n">
+        <v>0.3132</v>
+      </c>
+      <c r="J441" s="0" t="n">
+        <v>0.2556</v>
+      </c>
+      <c r="K441" s="0" t="n">
+        <v>0.0713</v>
+      </c>
+      <c r="L441" s="0" t="n">
+        <v>0.0368</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B442" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C442" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D442" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E442" s="0" t="n">
+        <v>0.0488</v>
+      </c>
+      <c r="F442" s="0" t="n">
+        <v>0.2222</v>
+      </c>
+      <c r="G442" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H442" s="0" t="n">
+        <v>0.3385</v>
+      </c>
+      <c r="I442" s="0" t="n">
+        <v>0.3556</v>
+      </c>
+      <c r="J442" s="0" t="n">
+        <v>0.3143</v>
+      </c>
+      <c r="K442" s="0" t="n">
+        <v>0.0926</v>
+      </c>
+      <c r="L442" s="0" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B443" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C443" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D443" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E443" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F443" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G443" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H443" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I443" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J443" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K443" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="L443" s="0" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B444" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C444" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D444" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E444" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F444" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G444" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H444" s="0" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I444" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="J444" s="0" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="K444" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L444" s="0" t="n">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B445" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C445" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D445" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E445" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F445" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G445" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H445" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I445" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J445" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K445" s="0" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="L445" s="0" t="n">
+        <v>0.018</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B446" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C446" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D446" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E446" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F446" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G446" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H446" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I446" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J446" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K446" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L446" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B447" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C447" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D447" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E447" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F447" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G447" s="0" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="H447" s="0" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="I447" s="0" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="J447" s="0" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="K447" s="0" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="L447" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B448" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C448" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D448" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E448" s="0" t="n">
+        <v>0.0556</v>
+      </c>
+      <c r="F448" s="0" t="n">
+        <v>0.2778</v>
+      </c>
+      <c r="G448" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H448" s="0" t="n">
+        <v>0.8333</v>
+      </c>
+      <c r="I448" s="0" t="n">
+        <v>0.8333</v>
+      </c>
+      <c r="J448" s="0" t="n">
+        <v>0.8333</v>
+      </c>
+      <c r="K448" s="0" t="n">
+        <v>0.9444</v>
+      </c>
+      <c r="L448" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B449" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C449" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D449" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E449" s="0" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="F449" s="0" t="n">
+        <v>0.2857</v>
+      </c>
+      <c r="G449" s="0" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="H449" s="0" t="n">
+        <v>0.1481</v>
+      </c>
+      <c r="I449" s="0" t="n">
+        <v>0.0769</v>
+      </c>
+      <c r="J449" s="0" t="n">
+        <v>0.0392</v>
+      </c>
+      <c r="K449" s="0" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="L449" s="0" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B450" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C450" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D450" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E450" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F450" s="0" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="G450" s="0" t="n">
+        <v>0.5385</v>
+      </c>
+      <c r="H450" s="0" t="n">
+        <v>0.6341</v>
+      </c>
+      <c r="I450" s="0" t="n">
+        <v>0.3939</v>
+      </c>
+      <c r="J450" s="0" t="n">
+        <v>0.2241</v>
+      </c>
+      <c r="K450" s="0" t="n">
+        <v>0.0581</v>
+      </c>
+      <c r="L450" s="0" t="n">
+        <v>0.0315</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B451" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C451" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D451" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E451" s="0" t="n">
+        <v>0.1053</v>
+      </c>
+      <c r="F451" s="0" t="n">
+        <v>0.4348</v>
+      </c>
+      <c r="G451" s="0" t="n">
+        <v>0.6429</v>
+      </c>
+      <c r="H451" s="0" t="n">
+        <v>0.6977</v>
+      </c>
+      <c r="I451" s="0" t="n">
+        <v>0.4412</v>
+      </c>
+      <c r="J451" s="0" t="n">
+        <v>0.2542</v>
+      </c>
+      <c r="K451" s="0" t="n">
+        <v>0.0656</v>
+      </c>
+      <c r="L451" s="0" t="n">
         <v>0.0354</v>
       </c>
     </row>
@@ -13904,15 +17327,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L121"/>
+  <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A92" activeCellId="0" sqref="A92"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B152" activeCellId="0" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13961,7 +17384,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>5</v>
@@ -13999,7 +17422,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>5</v>
@@ -14037,7 +17460,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>5</v>
@@ -14075,7 +17498,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>5</v>
@@ -14113,7 +17536,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>5</v>
@@ -14151,7 +17574,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>5</v>
@@ -14189,7 +17612,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>5</v>
@@ -14227,7 +17650,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>5</v>
@@ -14265,7 +17688,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>5</v>
@@ -14303,7 +17726,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>5</v>
@@ -14341,7 +17764,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>5</v>
@@ -14379,7 +17802,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>5</v>
@@ -14417,7 +17840,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>5</v>
@@ -14455,7 +17878,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>5</v>
@@ -14493,7 +17916,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>5</v>
@@ -14531,7 +17954,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>5</v>
@@ -14569,7 +17992,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>5</v>
@@ -14607,7 +18030,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>5</v>
@@ -14645,7 +18068,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>5</v>
@@ -14683,7 +18106,7 @@
         <v>0</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>5</v>
@@ -14721,7 +18144,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>5</v>
@@ -14759,7 +18182,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>5</v>
@@ -14797,7 +18220,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>5</v>
@@ -14835,7 +18258,7 @@
         <v>10</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>5</v>
@@ -14873,7 +18296,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>5</v>
@@ -14911,7 +18334,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>5</v>
@@ -14949,7 +18372,7 @@
         <v>10</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>5</v>
@@ -14987,7 +18410,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>5</v>
@@ -15025,7 +18448,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>5</v>
@@ -15063,7 +18486,7 @@
         <v>10</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>5</v>
@@ -15101,7 +18524,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>8</v>
@@ -15139,7 +18562,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>8</v>
@@ -15177,7 +18600,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>8</v>
@@ -15215,7 +18638,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>8</v>
@@ -15253,7 +18676,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>8</v>
@@ -15291,7 +18714,7 @@
         <v>10</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>8</v>
@@ -15329,7 +18752,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>8</v>
@@ -15367,7 +18790,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>8</v>
@@ -15405,7 +18828,7 @@
         <v>10</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>8</v>
@@ -15443,7 +18866,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>8</v>
@@ -15481,7 +18904,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>8</v>
@@ -15519,7 +18942,7 @@
         <v>10</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>8</v>
@@ -15557,7 +18980,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>8</v>
@@ -15595,7 +19018,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>8</v>
@@ -15633,7 +19056,7 @@
         <v>10</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>8</v>
@@ -15671,7 +19094,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>8</v>
@@ -15709,7 +19132,7 @@
         <v>0</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>8</v>
@@ -15747,7 +19170,7 @@
         <v>10</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>8</v>
@@ -15785,7 +19208,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>8</v>
@@ -15823,7 +19246,7 @@
         <v>0</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>8</v>
@@ -15861,7 +19284,7 @@
         <v>10</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>8</v>
@@ -15899,7 +19322,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>8</v>
@@ -15937,7 +19360,7 @@
         <v>0</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>8</v>
@@ -15975,7 +19398,7 @@
         <v>10</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>8</v>
@@ -16013,7 +19436,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>8</v>
@@ -16051,7 +19474,7 @@
         <v>0</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>8</v>
@@ -16089,7 +19512,7 @@
         <v>10</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>8</v>
@@ -16127,7 +19550,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>8</v>
@@ -16165,7 +19588,7 @@
         <v>0</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>8</v>
@@ -16203,7 +19626,7 @@
         <v>10</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>8</v>
@@ -16241,7 +19664,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>9</v>
@@ -16279,7 +19702,7 @@
         <v>0</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>9</v>
@@ -16317,7 +19740,7 @@
         <v>10</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>9</v>
@@ -16355,7 +19778,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>9</v>
@@ -16393,7 +19816,7 @@
         <v>0</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>9</v>
@@ -16431,7 +19854,7 @@
         <v>10</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>9</v>
@@ -16469,7 +19892,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>9</v>
@@ -16507,7 +19930,7 @@
         <v>0</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D69" s="0" t="s">
         <v>9</v>
@@ -16545,7 +19968,7 @@
         <v>10</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>9</v>
@@ -16583,7 +20006,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D71" s="0" t="s">
         <v>9</v>
@@ -16621,7 +20044,7 @@
         <v>0</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>9</v>
@@ -16659,7 +20082,7 @@
         <v>10</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>9</v>
@@ -16697,7 +20120,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>9</v>
@@ -16735,7 +20158,7 @@
         <v>0</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>9</v>
@@ -16773,7 +20196,7 @@
         <v>10</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>9</v>
@@ -16811,7 +20234,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>9</v>
@@ -16849,7 +20272,7 @@
         <v>0</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>9</v>
@@ -16887,7 +20310,7 @@
         <v>10</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>9</v>
@@ -16925,7 +20348,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>9</v>
@@ -16963,7 +20386,7 @@
         <v>0</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>9</v>
@@ -17001,7 +20424,7 @@
         <v>10</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>9</v>
@@ -17039,7 +20462,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>9</v>
@@ -17077,7 +20500,7 @@
         <v>0</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>9</v>
@@ -17115,7 +20538,7 @@
         <v>10</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>9</v>
@@ -17153,7 +20576,7 @@
         <v>1</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>9</v>
@@ -17191,7 +20614,7 @@
         <v>0</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>9</v>
@@ -17229,7 +20652,7 @@
         <v>10</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>9</v>
@@ -17267,7 +20690,7 @@
         <v>1</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D89" s="0" t="s">
         <v>9</v>
@@ -17305,7 +20728,7 @@
         <v>0</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>9</v>
@@ -17343,7 +20766,7 @@
         <v>10</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>9</v>
@@ -17381,7 +20804,7 @@
         <v>1</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>10</v>
@@ -17419,7 +20842,7 @@
         <v>0</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>10</v>
@@ -17457,7 +20880,7 @@
         <v>10</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>10</v>
@@ -17495,7 +20918,7 @@
         <v>1</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>10</v>
@@ -17533,7 +20956,7 @@
         <v>0</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>10</v>
@@ -17571,7 +20994,7 @@
         <v>10</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>10</v>
@@ -17609,7 +21032,7 @@
         <v>1</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>10</v>
@@ -17647,7 +21070,7 @@
         <v>0</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>10</v>
@@ -17685,7 +21108,7 @@
         <v>10</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>10</v>
@@ -17723,7 +21146,7 @@
         <v>1</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>10</v>
@@ -17761,7 +21184,7 @@
         <v>0</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>10</v>
@@ -17799,7 +21222,7 @@
         <v>10</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>10</v>
@@ -17837,7 +21260,7 @@
         <v>1</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>10</v>
@@ -17875,7 +21298,7 @@
         <v>0</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>10</v>
@@ -17913,7 +21336,7 @@
         <v>10</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>10</v>
@@ -17951,7 +21374,7 @@
         <v>1</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>10</v>
@@ -17989,7 +21412,7 @@
         <v>0</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>10</v>
@@ -18027,7 +21450,7 @@
         <v>10</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>10</v>
@@ -18065,7 +21488,7 @@
         <v>1</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>10</v>
@@ -18103,7 +21526,7 @@
         <v>0</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D111" s="0" t="s">
         <v>10</v>
@@ -18141,7 +21564,7 @@
         <v>10</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>10</v>
@@ -18179,7 +21602,7 @@
         <v>1</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>10</v>
@@ -18217,7 +21640,7 @@
         <v>0</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D114" s="0" t="s">
         <v>10</v>
@@ -18255,7 +21678,7 @@
         <v>10</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D115" s="0" t="s">
         <v>10</v>
@@ -18293,7 +21716,7 @@
         <v>1</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>10</v>
@@ -18331,7 +21754,7 @@
         <v>0</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>10</v>
@@ -18369,7 +21792,7 @@
         <v>10</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D118" s="0" t="s">
         <v>10</v>
@@ -18407,7 +21830,7 @@
         <v>1</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D119" s="0" t="s">
         <v>10</v>
@@ -18445,7 +21868,7 @@
         <v>0</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D120" s="0" t="s">
         <v>10</v>
@@ -18483,7 +21906,7 @@
         <v>10</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D121" s="0" t="s">
         <v>10</v>
@@ -18511,6 +21934,1146 @@
       </c>
       <c r="L121" s="0" t="n">
         <v>0.827883522945694</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B122" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" s="0" t="n">
+        <v>0.0263157894736842</v>
+      </c>
+      <c r="F122" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G122" s="0" t="n">
+        <v>0.180054302422723</v>
+      </c>
+      <c r="H122" s="0" t="n">
+        <v>0.307481618622923</v>
+      </c>
+      <c r="I122" s="0" t="n">
+        <v>0.444332764778393</v>
+      </c>
+      <c r="J122" s="0" t="n">
+        <v>0.450911712146814</v>
+      </c>
+      <c r="K122" s="0" t="n">
+        <v>0.466980272377103</v>
+      </c>
+      <c r="L122" s="0" t="n">
+        <v>0.470183632358416</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B123" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" s="0" t="n">
+        <v>0.0131578947368421</v>
+      </c>
+      <c r="G123" s="0" t="n">
+        <v>0.0307017543859649</v>
+      </c>
+      <c r="H123" s="0" t="n">
+        <v>0.0836899065846434</v>
+      </c>
+      <c r="I123" s="0" t="n">
+        <v>0.126124117110959</v>
+      </c>
+      <c r="J123" s="0" t="n">
+        <v>0.146330884028253</v>
+      </c>
+      <c r="K123" s="0" t="n">
+        <v>0.156352638021664</v>
+      </c>
+      <c r="L123" s="0" t="n">
+        <v>0.156352638021664</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B124" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" s="0" t="n">
+        <v>0.0175438596491228</v>
+      </c>
+      <c r="F124" s="0" t="n">
+        <v>0.087719298245614</v>
+      </c>
+      <c r="G124" s="0" t="n">
+        <v>0.175438596491228</v>
+      </c>
+      <c r="H124" s="0" t="n">
+        <v>0.351455298875207</v>
+      </c>
+      <c r="I124" s="0" t="n">
+        <v>0.525075406250599</v>
+      </c>
+      <c r="J124" s="0" t="n">
+        <v>0.552399967654108</v>
+      </c>
+      <c r="K124" s="0" t="n">
+        <v>0.578023648678076</v>
+      </c>
+      <c r="L124" s="0" t="n">
+        <v>0.581233138842795</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B125" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F125" s="0" t="n">
+        <v>0.128666666666667</v>
+      </c>
+      <c r="G125" s="0" t="n">
+        <v>0.128666666666667</v>
+      </c>
+      <c r="H125" s="0" t="n">
+        <v>0.223307581307581</v>
+      </c>
+      <c r="I125" s="0" t="n">
+        <v>0.296402048244153</v>
+      </c>
+      <c r="J125" s="0" t="n">
+        <v>0.323865147463774</v>
+      </c>
+      <c r="K125" s="0" t="n">
+        <v>0.352102352809351</v>
+      </c>
+      <c r="L125" s="0" t="n">
+        <v>0.352102352809351</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B126" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" s="0" t="n">
+        <v>0.0100840336134454</v>
+      </c>
+      <c r="H126" s="0" t="n">
+        <v>0.0310469079272576</v>
+      </c>
+      <c r="I126" s="0" t="n">
+        <v>0.0850390006125913</v>
+      </c>
+      <c r="J126" s="0" t="n">
+        <v>0.0850390006125913</v>
+      </c>
+      <c r="K126" s="0" t="n">
+        <v>0.103145894637123</v>
+      </c>
+      <c r="L126" s="0" t="n">
+        <v>0.103897414757366</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B127" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" s="0" t="n">
+        <v>0.0169491525423729</v>
+      </c>
+      <c r="F127" s="0" t="n">
+        <v>0.0545197740112994</v>
+      </c>
+      <c r="G127" s="0" t="n">
+        <v>0.0767958030669895</v>
+      </c>
+      <c r="H127" s="0" t="n">
+        <v>0.167884385995841</v>
+      </c>
+      <c r="I127" s="0" t="n">
+        <v>0.290376977500089</v>
+      </c>
+      <c r="J127" s="0" t="n">
+        <v>0.311584014138224</v>
+      </c>
+      <c r="K127" s="0" t="n">
+        <v>0.35587215376767</v>
+      </c>
+      <c r="L127" s="0" t="n">
+        <v>0.35677768340408</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B128" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F128" s="0" t="n">
+        <v>0.226666666666667</v>
+      </c>
+      <c r="G128" s="0" t="n">
+        <v>0.293333333333333</v>
+      </c>
+      <c r="H128" s="0" t="n">
+        <v>0.293333333333333</v>
+      </c>
+      <c r="I128" s="0" t="n">
+        <v>0.321675579322638</v>
+      </c>
+      <c r="J128" s="0" t="n">
+        <v>0.321675579322638</v>
+      </c>
+      <c r="K128" s="0" t="n">
+        <v>0.331803563025751</v>
+      </c>
+      <c r="L128" s="0" t="n">
+        <v>0.331803563025751</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B129" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" s="0" t="n">
+        <v>0.0357142857142857</v>
+      </c>
+      <c r="G129" s="0" t="n">
+        <v>0.0688775510204082</v>
+      </c>
+      <c r="H129" s="0" t="n">
+        <v>0.113499595642453</v>
+      </c>
+      <c r="I129" s="0" t="n">
+        <v>0.148264305625215</v>
+      </c>
+      <c r="J129" s="0" t="n">
+        <v>0.167413768964807</v>
+      </c>
+      <c r="K129" s="0" t="n">
+        <v>0.174522482081328</v>
+      </c>
+      <c r="L129" s="0" t="n">
+        <v>0.178976136536674</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B130" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" s="0" t="n">
+        <v>0.0263157894736842</v>
+      </c>
+      <c r="F130" s="0" t="n">
+        <v>0.131578947368421</v>
+      </c>
+      <c r="G130" s="0" t="n">
+        <v>0.210526315789474</v>
+      </c>
+      <c r="H130" s="0" t="n">
+        <v>0.266084792400582</v>
+      </c>
+      <c r="I130" s="0" t="n">
+        <v>0.324707477705146</v>
+      </c>
+      <c r="J130" s="0" t="n">
+        <v>0.34536492219673</v>
+      </c>
+      <c r="K130" s="0" t="n">
+        <v>0.360948867143363</v>
+      </c>
+      <c r="L130" s="0" t="n">
+        <v>0.365589042242141</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B131" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" s="0" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="G131" s="0" t="n">
+        <v>0.108333333333333</v>
+      </c>
+      <c r="H131" s="0" t="n">
+        <v>0.130555555555556</v>
+      </c>
+      <c r="I131" s="0" t="n">
+        <v>0.154214686761229</v>
+      </c>
+      <c r="J131" s="0" t="n">
+        <v>0.173883047932858</v>
+      </c>
+      <c r="K131" s="0" t="n">
+        <v>0.197811530965616</v>
+      </c>
+      <c r="L131" s="0" t="n">
+        <v>0.197811530965616</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B132" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" s="0" t="n">
+        <v>0.0303030303030303</v>
+      </c>
+      <c r="F132" s="0" t="n">
+        <v>0.0686868686868687</v>
+      </c>
+      <c r="G132" s="0" t="n">
+        <v>0.100673400673401</v>
+      </c>
+      <c r="H132" s="0" t="n">
+        <v>0.169111727625659</v>
+      </c>
+      <c r="I132" s="0" t="n">
+        <v>0.198679315164261</v>
+      </c>
+      <c r="J132" s="0" t="n">
+        <v>0.212300374239866</v>
+      </c>
+      <c r="K132" s="0" t="n">
+        <v>0.214443704954625</v>
+      </c>
+      <c r="L132" s="0" t="n">
+        <v>0.220669711103009</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B133" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133" s="0" t="n">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="F133" s="0" t="n">
+        <v>0.111111111111111</v>
+      </c>
+      <c r="G133" s="0" t="n">
+        <v>0.162839506172839</v>
+      </c>
+      <c r="H133" s="0" t="n">
+        <v>0.251894168973632</v>
+      </c>
+      <c r="I133" s="0" t="n">
+        <v>0.302024771802354</v>
+      </c>
+      <c r="J133" s="0" t="n">
+        <v>0.331864197284481</v>
+      </c>
+      <c r="K133" s="0" t="n">
+        <v>0.350167111699614</v>
+      </c>
+      <c r="L133" s="0" t="n">
+        <v>0.357382656979063</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B134" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H134" s="0" t="n">
+        <v>0.0233333333333333</v>
+      </c>
+      <c r="I134" s="0" t="n">
+        <v>0.0344444444444444</v>
+      </c>
+      <c r="J134" s="0" t="n">
+        <v>0.0474263968644609</v>
+      </c>
+      <c r="K134" s="0" t="n">
+        <v>0.0474263968644609</v>
+      </c>
+      <c r="L134" s="0" t="n">
+        <v>0.0486074992266656</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B135" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135" s="0" t="n">
+        <v>0.0526315789473684</v>
+      </c>
+      <c r="F135" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G135" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H135" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I135" s="0" t="n">
+        <v>0.219144013880856</v>
+      </c>
+      <c r="J135" s="0" t="n">
+        <v>0.223237581132318</v>
+      </c>
+      <c r="K135" s="0" t="n">
+        <v>0.224921791658634</v>
+      </c>
+      <c r="L135" s="0" t="n">
+        <v>0.224921791658634</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B136" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E136" s="0" t="n">
+        <v>0.0344827586206897</v>
+      </c>
+      <c r="F136" s="0" t="n">
+        <v>0.131034482758621</v>
+      </c>
+      <c r="G136" s="0" t="n">
+        <v>0.148275862068966</v>
+      </c>
+      <c r="H136" s="0" t="n">
+        <v>0.162068965517241</v>
+      </c>
+      <c r="I136" s="0" t="n">
+        <v>0.19043689388517</v>
+      </c>
+      <c r="J136" s="0" t="n">
+        <v>0.205655385268409</v>
+      </c>
+      <c r="K136" s="0" t="n">
+        <v>0.207448488716685</v>
+      </c>
+      <c r="L136" s="0" t="n">
+        <v>0.208398800962137</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B137" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" s="0" t="n">
+        <v>0.0714285714285714</v>
+      </c>
+      <c r="F137" s="0" t="n">
+        <v>0.0714285714285714</v>
+      </c>
+      <c r="G137" s="0" t="n">
+        <v>0.115646258503401</v>
+      </c>
+      <c r="H137" s="0" t="n">
+        <v>0.226952319389294</v>
+      </c>
+      <c r="I137" s="0" t="n">
+        <v>0.25596506865376</v>
+      </c>
+      <c r="J137" s="0" t="n">
+        <v>0.25596506865376</v>
+      </c>
+      <c r="K137" s="0" t="n">
+        <v>0.274554886678303</v>
+      </c>
+      <c r="L137" s="0" t="n">
+        <v>0.274554886678303</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B138" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" s="0" t="n">
+        <v>0.0686274509803921</v>
+      </c>
+      <c r="G138" s="0" t="n">
+        <v>0.0686274509803921</v>
+      </c>
+      <c r="H138" s="0" t="n">
+        <v>0.0857118499573742</v>
+      </c>
+      <c r="I138" s="0" t="n">
+        <v>0.0938817845978971</v>
+      </c>
+      <c r="J138" s="0" t="n">
+        <v>0.106537756077398</v>
+      </c>
+      <c r="K138" s="0" t="n">
+        <v>0.111621813033306</v>
+      </c>
+      <c r="L138" s="0" t="n">
+        <v>0.114285569391729</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B139" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E139" s="0" t="n">
+        <v>0.032258064516129</v>
+      </c>
+      <c r="F139" s="0" t="n">
+        <v>0.0967741935483871</v>
+      </c>
+      <c r="G139" s="0" t="n">
+        <v>0.133128520225294</v>
+      </c>
+      <c r="H139" s="0" t="n">
+        <v>0.23035705194438</v>
+      </c>
+      <c r="I139" s="0" t="n">
+        <v>0.261963065575934</v>
+      </c>
+      <c r="J139" s="0" t="n">
+        <v>0.278580856387273</v>
+      </c>
+      <c r="K139" s="0" t="n">
+        <v>0.299122635339249</v>
+      </c>
+      <c r="L139" s="0" t="n">
+        <v>0.302182503245929</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B140" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F140" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G140" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H140" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I140" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J140" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K140" s="0" t="n">
+        <v>0.407273091564817</v>
+      </c>
+      <c r="L140" s="0" t="n">
+        <v>0.407273091564817</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B141" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" s="0" t="n">
+        <v>0.0883333333333333</v>
+      </c>
+      <c r="G141" s="0" t="n">
+        <v>0.141904761904762</v>
+      </c>
+      <c r="H141" s="0" t="n">
+        <v>0.164981684981685</v>
+      </c>
+      <c r="I141" s="0" t="n">
+        <v>0.164981684981685</v>
+      </c>
+      <c r="J141" s="0" t="n">
+        <v>0.178858185839318</v>
+      </c>
+      <c r="K141" s="0" t="n">
+        <v>0.181918270717585</v>
+      </c>
+      <c r="L141" s="0" t="n">
+        <v>0.182751604050918</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B142" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E142" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F142" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G142" s="0" t="n">
+        <v>0.312</v>
+      </c>
+      <c r="H142" s="0" t="n">
+        <v>0.339692307692308</v>
+      </c>
+      <c r="I142" s="0" t="n">
+        <v>0.339692307692308</v>
+      </c>
+      <c r="J142" s="0" t="n">
+        <v>0.355239477503628</v>
+      </c>
+      <c r="K142" s="0" t="n">
+        <v>0.363093178307731</v>
+      </c>
+      <c r="L142" s="0" t="n">
+        <v>0.364062875277428</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B143" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E143" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" s="0" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G143" s="0" t="n">
+        <v>0.0666666666666667</v>
+      </c>
+      <c r="H143" s="0" t="n">
+        <v>0.0666666666666667</v>
+      </c>
+      <c r="I143" s="0" t="n">
+        <v>0.0666666666666667</v>
+      </c>
+      <c r="J143" s="0" t="n">
+        <v>0.0718036529680365</v>
+      </c>
+      <c r="K143" s="0" t="n">
+        <v>0.0751149112461822</v>
+      </c>
+      <c r="L143" s="0" t="n">
+        <v>0.0759276550693292</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B144" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E144" s="0" t="n">
+        <v>0.0238095238095238</v>
+      </c>
+      <c r="F144" s="0" t="n">
+        <v>0.0238095238095238</v>
+      </c>
+      <c r="G144" s="0" t="n">
+        <v>0.0238095238095238</v>
+      </c>
+      <c r="H144" s="0" t="n">
+        <v>0.032574568288854</v>
+      </c>
+      <c r="I144" s="0" t="n">
+        <v>0.0412939045081902</v>
+      </c>
+      <c r="J144" s="0" t="n">
+        <v>0.0412939045081902</v>
+      </c>
+      <c r="K144" s="0" t="n">
+        <v>0.0454159477892156</v>
+      </c>
+      <c r="L144" s="0" t="n">
+        <v>0.0464570894002264</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B145" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E145" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F145" s="0" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="G145" s="0" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="H145" s="0" t="n">
+        <v>0.0512967032967033</v>
+      </c>
+      <c r="I145" s="0" t="n">
+        <v>0.0616330669330669</v>
+      </c>
+      <c r="J145" s="0" t="n">
+        <v>0.0640988203577245</v>
+      </c>
+      <c r="K145" s="0" t="n">
+        <v>0.0705048237840464</v>
+      </c>
+      <c r="L145" s="0" t="n">
+        <v>0.0721280779182304</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B146" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E146" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" s="0" t="n">
+        <v>0.104761904761905</v>
+      </c>
+      <c r="G146" s="0" t="n">
+        <v>0.104761904761905</v>
+      </c>
+      <c r="H146" s="0" t="n">
+        <v>0.143722943722944</v>
+      </c>
+      <c r="I146" s="0" t="n">
+        <v>0.143722943722944</v>
+      </c>
+      <c r="J146" s="0" t="n">
+        <v>0.16363552264475</v>
+      </c>
+      <c r="K146" s="0" t="n">
+        <v>0.168219174287226</v>
+      </c>
+      <c r="L146" s="0" t="n">
+        <v>0.1695778699394</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B147" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E147" s="0" t="n">
+        <v>0.0303030303030303</v>
+      </c>
+      <c r="F147" s="0" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="G147" s="0" t="n">
+        <v>0.125180375180375</v>
+      </c>
+      <c r="H147" s="0" t="n">
+        <v>0.156142629300524</v>
+      </c>
+      <c r="I147" s="0" t="n">
+        <v>0.196710525757749</v>
+      </c>
+      <c r="J147" s="0" t="n">
+        <v>0.22163289401345</v>
+      </c>
+      <c r="K147" s="0" t="n">
+        <v>0.2293976286674</v>
+      </c>
+      <c r="L147" s="0" t="n">
+        <v>0.2293976286674</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B148" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E148" s="0" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F148" s="0" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G148" s="0" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H148" s="0" t="n">
+        <v>0.22983971291866</v>
+      </c>
+      <c r="I148" s="0" t="n">
+        <v>0.272694489784307</v>
+      </c>
+      <c r="J148" s="0" t="n">
+        <v>0.313520378446159</v>
+      </c>
+      <c r="K148" s="0" t="n">
+        <v>0.325010299232723</v>
+      </c>
+      <c r="L148" s="0" t="n">
+        <v>0.325893451406636</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B149" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E149" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F149" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G149" s="0" t="n">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="H149" s="0" t="n">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="I149" s="0" t="n">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="J149" s="0" t="n">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="K149" s="0" t="n">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="L149" s="0" t="n">
+        <v>0.642857142857143</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B150" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E150" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F150" s="0" t="n">
+        <v>0.169791666666667</v>
+      </c>
+      <c r="G150" s="0" t="n">
+        <v>0.317361111111111</v>
+      </c>
+      <c r="H150" s="0" t="n">
+        <v>0.593806540681541</v>
+      </c>
+      <c r="I150" s="0" t="n">
+        <v>0.593806540681541</v>
+      </c>
+      <c r="J150" s="0" t="n">
+        <v>0.593806540681541</v>
+      </c>
+      <c r="K150" s="0" t="n">
+        <v>0.607588202721791</v>
+      </c>
+      <c r="L150" s="0" t="n">
+        <v>0.608768840266064</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B151" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E151" s="0" t="n">
+        <v>0.0555555555555556</v>
+      </c>
+      <c r="F151" s="0" t="n">
+        <v>0.277777777777778</v>
+      </c>
+      <c r="G151" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H151" s="0" t="n">
+        <v>0.794030969030969</v>
+      </c>
+      <c r="I151" s="0" t="n">
+        <v>0.794030969030969</v>
+      </c>
+      <c r="J151" s="0" t="n">
+        <v>0.794030969030969</v>
+      </c>
+      <c r="K151" s="0" t="n">
+        <v>0.807971262551415</v>
+      </c>
+      <c r="L151" s="0" t="n">
+        <v>0.809151900095689</v>
       </c>
     </row>
   </sheetData>
